--- a/statistics_files/2025/2025_99_z_state_survey.xlsx
+++ b/statistics_files/2025/2025_99_z_state_survey.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BDF8895-9CCC-4D2B-896E-99BC452A8190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B68AB4F-8F2C-42EB-B56A-7E1228368FEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="717" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,15 +35,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -52,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="200">
   <si>
     <t>branchcode</t>
   </si>
@@ -637,6 +628,24 @@
   <si>
     <t>No way to determine in Koha</t>
   </si>
+  <si>
+    <t>Question 9.1a - books owned at start of 2025</t>
+  </si>
+  <si>
+    <t>Question 9.1b - books added during 2025</t>
+  </si>
+  <si>
+    <t>Question 9.1c - books deleted during 2025</t>
+  </si>
+  <si>
+    <t>Question 9.2 - total audio at end of 2025</t>
+  </si>
+  <si>
+    <t>Question 9.3 - total video at end of 2025</t>
+  </si>
+  <si>
+    <t>Question 9.4 - total of all other materials at end of 2025</t>
+  </si>
 </sst>
 </file>
 
@@ -785,7 +794,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1010,12 +1019,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,9 +1264,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1326,6 +1326,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1660,20 +1663,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264AF5B3-5C31-49AD-A31C-00FD058A534A}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="7" customWidth="1"/>
-    <col min="2" max="14" width="16.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="23.85546875" style="41" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="41" customWidth="1"/>
-    <col min="17" max="17" width="23.85546875" style="41" customWidth="1"/>
+    <col min="1" max="1" width="44.7265625" style="7" customWidth="1"/>
+    <col min="2" max="14" width="16.7265625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="27.6328125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="16.7265625" style="40" customWidth="1"/>
+    <col min="17" max="17" width="27.6328125" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1681,1473 +1684,3016 @@
         <v>184</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="G1" s="25" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="H1" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="I1" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="33" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="33" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="33" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="Q1" s="33" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="35" t="s">
+      <c r="B2" s="1">
+        <v>6715</v>
+      </c>
+      <c r="C2" s="1">
+        <v>51739</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3336</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2337</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2571</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6048</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1509</v>
+      </c>
+      <c r="I2" s="1">
+        <v>13620</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5918</v>
+      </c>
+      <c r="K2" s="1">
+        <v>22499</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2300</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="1">
+        <v>11134</v>
+      </c>
+      <c r="O2" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="35" t="s">
+      <c r="P2" s="41">
+        <v>12857</v>
+      </c>
+      <c r="Q2" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="36" t="s">
+      <c r="B3" s="2">
+        <v>4418</v>
+      </c>
+      <c r="C3" s="2">
+        <v>22798</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1248</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1004</v>
+      </c>
+      <c r="F3" s="2">
+        <v>327</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3014</v>
+      </c>
+      <c r="H3" s="2">
+        <v>581</v>
+      </c>
+      <c r="I3" s="2">
+        <v>7892</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2979</v>
+      </c>
+      <c r="K3" s="2">
+        <v>13703</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1101</v>
+      </c>
+      <c r="M3" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3253</v>
+      </c>
+      <c r="O3" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="36" t="s">
+      <c r="P3" s="42">
+        <v>5668</v>
+      </c>
+      <c r="Q3" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="35" t="s">
+      <c r="B4" s="1">
+        <v>6909</v>
+      </c>
+      <c r="C4" s="1">
+        <v>51093</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3125</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3186</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2109</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7599</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1033</v>
+      </c>
+      <c r="I4" s="1">
+        <v>18193</v>
+      </c>
+      <c r="J4" s="1">
+        <v>6598</v>
+      </c>
+      <c r="K4" s="1">
+        <v>39206</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4154</v>
+      </c>
+      <c r="M4" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N4" s="1">
+        <v>10002</v>
+      </c>
+      <c r="O4" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="35" t="s">
+      <c r="P4" s="41">
+        <v>9629</v>
+      </c>
+      <c r="Q4" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="36" t="s">
+      <c r="B5" s="2">
+        <v>189</v>
+      </c>
+      <c r="C5" s="2">
+        <v>10697</v>
+      </c>
+      <c r="D5" s="2">
+        <v>256</v>
+      </c>
+      <c r="E5" s="2">
+        <v>259</v>
+      </c>
+      <c r="F5" s="2">
+        <v>650</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1154</v>
+      </c>
+      <c r="H5" s="2">
+        <v>83</v>
+      </c>
+      <c r="I5" s="2">
+        <v>373</v>
+      </c>
+      <c r="J5" s="2">
+        <v>127</v>
+      </c>
+      <c r="K5" s="2">
+        <v>407</v>
+      </c>
+      <c r="L5" s="2">
+        <v>81</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N5" s="2">
+        <v>1083</v>
+      </c>
+      <c r="O5" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="36" t="s">
+      <c r="P5" s="42">
+        <v>232</v>
+      </c>
+      <c r="Q5" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="35" t="s">
+      <c r="B6" s="1">
+        <v>7857</v>
+      </c>
+      <c r="C6" s="1">
+        <v>49831</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3418</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1984</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2910</v>
+      </c>
+      <c r="G6" s="1">
+        <v>5660</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2402</v>
+      </c>
+      <c r="I6" s="1">
+        <v>14483</v>
+      </c>
+      <c r="J6" s="1">
+        <v>6968</v>
+      </c>
+      <c r="K6" s="1">
+        <v>23098</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2473</v>
+      </c>
+      <c r="M6" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N6" s="1">
+        <v>10156</v>
+      </c>
+      <c r="O6" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="35" t="s">
+      <c r="P6" s="41">
+        <v>9387</v>
+      </c>
+      <c r="Q6" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="36" t="s">
+      <c r="B7" s="2">
+        <v>824</v>
+      </c>
+      <c r="C7" s="2">
+        <v>9813</v>
+      </c>
+      <c r="D7" s="2">
+        <v>636</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1302</v>
+      </c>
+      <c r="F7" s="2">
+        <v>641</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3431</v>
+      </c>
+      <c r="H7" s="2">
+        <v>216</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1542</v>
+      </c>
+      <c r="J7" s="2">
+        <v>933</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2644</v>
+      </c>
+      <c r="L7" s="2">
+        <v>368</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N7" s="2">
+        <v>1648</v>
+      </c>
+      <c r="O7" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P7" s="43"/>
-      <c r="Q7" s="36" t="s">
+      <c r="P7" s="42">
+        <v>1525</v>
+      </c>
+      <c r="Q7" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="35" t="s">
+      <c r="B8" s="1">
+        <v>893</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6939</v>
+      </c>
+      <c r="D8" s="1">
+        <v>905</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1812</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1166</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2687</v>
+      </c>
+      <c r="J8" s="1">
+        <v>562</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1941</v>
+      </c>
+      <c r="L8" s="1">
+        <v>204</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1597</v>
+      </c>
+      <c r="O8" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="35" t="s">
+      <c r="P8" s="41">
+        <v>1374</v>
+      </c>
+      <c r="Q8" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="36" t="s">
+      <c r="B9" s="2">
+        <v>287</v>
+      </c>
+      <c r="C9" s="2">
+        <v>7659</v>
+      </c>
+      <c r="D9" s="2">
+        <v>303</v>
+      </c>
+      <c r="E9" s="2">
+        <v>202</v>
+      </c>
+      <c r="F9" s="2">
+        <v>311</v>
+      </c>
+      <c r="G9" s="2">
+        <v>812</v>
+      </c>
+      <c r="H9" s="2">
+        <v>47</v>
+      </c>
+      <c r="I9" s="2">
+        <v>1464</v>
+      </c>
+      <c r="J9" s="2">
+        <v>85</v>
+      </c>
+      <c r="K9" s="2">
+        <v>848</v>
+      </c>
+      <c r="L9" s="2">
+        <v>75</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N9" s="2">
+        <v>651</v>
+      </c>
+      <c r="O9" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="36" t="s">
+      <c r="P9" s="42">
+        <v>472</v>
+      </c>
+      <c r="Q9" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="35" t="s">
+      <c r="B10" s="1">
+        <v>162</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5656</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1">
+        <v>630</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5</v>
+      </c>
+      <c r="I10" s="1">
+        <v>63</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>391</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N10" s="1">
+        <v>333</v>
+      </c>
+      <c r="O10" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="35" t="s">
+      <c r="P10" s="41">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="36" t="s">
+      <c r="B11" s="2">
+        <v>33</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>361</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P11" s="43"/>
-      <c r="Q11" s="36" t="s">
+      <c r="P11" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="37" t="s">
+      <c r="B12" s="3">
+        <v>443</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1014</v>
+      </c>
+      <c r="D12" s="3">
+        <v>138</v>
+      </c>
+      <c r="E12" s="3">
+        <v>42</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+      <c r="G12" s="3">
+        <v>887</v>
+      </c>
+      <c r="H12" s="3">
+        <v>95</v>
+      </c>
+      <c r="I12" s="3">
+        <v>219</v>
+      </c>
+      <c r="J12" s="3">
+        <v>327</v>
+      </c>
+      <c r="K12" s="3">
+        <v>248</v>
+      </c>
+      <c r="L12" s="3">
+        <v>32</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N12" s="3">
+        <v>292</v>
+      </c>
+      <c r="O12" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="37" t="s">
+      <c r="P12" s="43">
+        <v>501</v>
+      </c>
+      <c r="Q12" s="36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="37" t="s">
+      <c r="B13" s="3">
+        <v>382</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3490</v>
+      </c>
+      <c r="D13" s="3">
+        <v>412</v>
+      </c>
+      <c r="E13" s="3">
+        <v>96</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1225</v>
+      </c>
+      <c r="H13" s="3">
+        <v>200</v>
+      </c>
+      <c r="I13" s="3">
+        <v>551</v>
+      </c>
+      <c r="J13" s="3">
+        <v>865</v>
+      </c>
+      <c r="K13" s="3">
+        <v>495</v>
+      </c>
+      <c r="L13" s="3">
+        <v>96</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1563</v>
+      </c>
+      <c r="O13" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="37" t="s">
+      <c r="P13" s="43">
+        <v>1387</v>
+      </c>
+      <c r="Q13" s="36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="37" t="s">
+      <c r="B14" s="3">
+        <v>916</v>
+      </c>
+      <c r="C14" s="3">
+        <v>9016</v>
+      </c>
+      <c r="D14" s="3">
+        <v>859</v>
+      </c>
+      <c r="E14" s="3">
+        <v>181</v>
+      </c>
+      <c r="F14" s="3">
+        <v>324</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1418</v>
+      </c>
+      <c r="H14" s="3">
+        <v>239</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2226</v>
+      </c>
+      <c r="J14" s="3">
+        <v>564</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2115</v>
+      </c>
+      <c r="L14" s="3">
+        <v>294</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2509</v>
+      </c>
+      <c r="O14" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="37" t="s">
+      <c r="P14" s="43">
+        <v>1676</v>
+      </c>
+      <c r="Q14" s="36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="16"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="37" t="s">
+      <c r="B15" s="3">
+        <v>515</v>
+      </c>
+      <c r="C15" s="3">
+        <v>5926</v>
+      </c>
+      <c r="D15" s="3">
+        <v>685</v>
+      </c>
+      <c r="E15" s="3">
+        <v>464</v>
+      </c>
+      <c r="F15" s="3">
+        <v>303</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1921</v>
+      </c>
+      <c r="H15" s="3">
+        <v>249</v>
+      </c>
+      <c r="I15" s="3">
+        <v>982</v>
+      </c>
+      <c r="J15" s="3">
+        <v>306</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1245</v>
+      </c>
+      <c r="L15" s="3">
+        <v>248</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2770</v>
+      </c>
+      <c r="O15" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="37" t="s">
+      <c r="P15" s="43">
+        <v>1081</v>
+      </c>
+      <c r="Q15" s="36" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="36" t="s">
+      <c r="B16" s="2">
+        <v>329</v>
+      </c>
+      <c r="C16" s="2">
+        <v>8017</v>
+      </c>
+      <c r="D16" s="2">
+        <v>482</v>
+      </c>
+      <c r="E16" s="2">
+        <v>824</v>
+      </c>
+      <c r="F16" s="2">
+        <v>69</v>
+      </c>
+      <c r="G16" s="2">
+        <v>684</v>
+      </c>
+      <c r="H16" s="2">
+        <v>11</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1309</v>
+      </c>
+      <c r="J16" s="2">
+        <v>44</v>
+      </c>
+      <c r="K16" s="2">
+        <v>937</v>
+      </c>
+      <c r="L16" s="2">
+        <v>40</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1627</v>
+      </c>
+      <c r="O16" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="36" t="s">
+      <c r="P16" s="42">
+        <v>679</v>
+      </c>
+      <c r="Q16" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="35" t="s">
+      <c r="B17" s="1">
+        <v>1999</v>
+      </c>
+      <c r="C17" s="1">
+        <v>12966</v>
+      </c>
+      <c r="D17" s="1">
+        <v>842</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1354</v>
+      </c>
+      <c r="F17" s="1">
+        <v>392</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1185</v>
+      </c>
+      <c r="H17" s="1">
+        <v>73</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4979</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1462</v>
+      </c>
+      <c r="K17" s="1">
+        <v>8010</v>
+      </c>
+      <c r="L17" s="1">
+        <v>721</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N17" s="1">
+        <v>4006</v>
+      </c>
+      <c r="O17" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="35" t="s">
+      <c r="P17" s="41">
+        <v>5590</v>
+      </c>
+      <c r="Q17" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="36" t="s">
+      <c r="B18" s="2">
+        <v>180</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6711</v>
+      </c>
+      <c r="D18" s="2">
+        <v>294</v>
+      </c>
+      <c r="E18" s="2">
+        <v>252</v>
+      </c>
+      <c r="F18" s="2">
+        <v>12</v>
+      </c>
+      <c r="G18" s="2">
+        <v>597</v>
+      </c>
+      <c r="H18" s="2">
+        <v>4</v>
+      </c>
+      <c r="I18" s="2">
+        <v>497</v>
+      </c>
+      <c r="J18" s="2">
+        <v>81</v>
+      </c>
+      <c r="K18" s="2">
+        <v>599</v>
+      </c>
+      <c r="L18" s="2">
+        <v>64</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N18" s="2">
+        <v>958</v>
+      </c>
+      <c r="O18" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="36" t="s">
+      <c r="P18" s="42">
+        <v>486</v>
+      </c>
+      <c r="Q18" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="35" t="s">
+      <c r="B19" s="1">
+        <v>2469</v>
+      </c>
+      <c r="C19" s="1">
+        <v>29226</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1084</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1128</v>
+      </c>
+      <c r="F19" s="1">
+        <v>863</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1929</v>
+      </c>
+      <c r="H19" s="1">
+        <v>304</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6099</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1997</v>
+      </c>
+      <c r="K19" s="1">
+        <v>7241</v>
+      </c>
+      <c r="L19" s="1">
+        <v>388</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N19" s="1">
+        <v>3913</v>
+      </c>
+      <c r="O19" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="35" t="s">
+      <c r="P19" s="41">
+        <v>3978</v>
+      </c>
+      <c r="Q19" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="36" t="s">
+      <c r="B20" s="2">
+        <v>9761</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2222</v>
+      </c>
+      <c r="D20" s="2">
+        <v>137</v>
+      </c>
+      <c r="E20" s="2">
+        <v>312</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>642</v>
+      </c>
+      <c r="I20" s="2">
+        <v>115</v>
+      </c>
+      <c r="J20" s="2">
+        <v>122</v>
+      </c>
+      <c r="K20" s="2">
+        <v>67</v>
+      </c>
+      <c r="L20" s="2">
+        <v>1</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N20" s="2">
+        <v>493</v>
+      </c>
+      <c r="O20" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="36" t="s">
+      <c r="P20" s="42">
+        <v>204</v>
+      </c>
+      <c r="Q20" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="35" t="s">
+      <c r="B21" s="1">
+        <v>4013</v>
+      </c>
+      <c r="C21" s="1">
+        <v>22328</v>
+      </c>
+      <c r="D21" s="1">
+        <v>955</v>
+      </c>
+      <c r="E21" s="1">
+        <v>935</v>
+      </c>
+      <c r="F21" s="1">
+        <v>831</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2588</v>
+      </c>
+      <c r="H21" s="1">
+        <v>687</v>
+      </c>
+      <c r="I21" s="1">
+        <v>7031</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1721</v>
+      </c>
+      <c r="K21" s="1">
+        <v>6346</v>
+      </c>
+      <c r="L21" s="1">
+        <v>863</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3282</v>
+      </c>
+      <c r="O21" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="35" t="s">
+      <c r="P21" s="41">
+        <v>4551</v>
+      </c>
+      <c r="Q21" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="36" t="s">
+      <c r="B22" s="2">
+        <v>1233</v>
+      </c>
+      <c r="C22" s="2">
+        <v>11627</v>
+      </c>
+      <c r="D22" s="2">
+        <v>343</v>
+      </c>
+      <c r="E22" s="2">
+        <v>501</v>
+      </c>
+      <c r="F22" s="2">
+        <v>175</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1714</v>
+      </c>
+      <c r="H22" s="2">
+        <v>416</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1119</v>
+      </c>
+      <c r="J22" s="2">
+        <v>467</v>
+      </c>
+      <c r="K22" s="2">
+        <v>639</v>
+      </c>
+      <c r="L22" s="2">
+        <v>55</v>
+      </c>
+      <c r="M22" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N22" s="2">
+        <v>2341</v>
+      </c>
+      <c r="O22" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="36" t="s">
+      <c r="P22" s="42">
+        <v>689</v>
+      </c>
+      <c r="Q22" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="35" t="s">
+      <c r="B23" s="1">
+        <v>3171</v>
+      </c>
+      <c r="C23" s="1">
+        <v>19423</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1972</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1008</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>3497</v>
+      </c>
+      <c r="H23" s="1">
+        <v>509</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7217</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1778</v>
+      </c>
+      <c r="K23" s="1">
+        <v>12168</v>
+      </c>
+      <c r="L23" s="1">
+        <v>944</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N23" s="1">
+        <v>5445</v>
+      </c>
+      <c r="O23" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="35" t="s">
+      <c r="P23" s="41">
+        <v>5793</v>
+      </c>
+      <c r="Q23" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="36" t="s">
+      <c r="B24" s="2">
+        <v>14788</v>
+      </c>
+      <c r="C24" s="2">
+        <v>65736</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6555</v>
+      </c>
+      <c r="E24" s="2">
+        <v>5322</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3904</v>
+      </c>
+      <c r="G24" s="2">
+        <v>11132</v>
+      </c>
+      <c r="H24" s="2">
+        <v>4848</v>
+      </c>
+      <c r="I24" s="2">
+        <v>23860</v>
+      </c>
+      <c r="J24" s="2">
+        <v>14938</v>
+      </c>
+      <c r="K24" s="2">
+        <v>43710</v>
+      </c>
+      <c r="L24" s="2">
+        <v>4747</v>
+      </c>
+      <c r="M24" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N24" s="2">
+        <v>10053</v>
+      </c>
+      <c r="O24" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="36" t="s">
+      <c r="P24" s="42">
+        <v>14491</v>
+      </c>
+      <c r="Q24" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="35" t="s">
+      <c r="B25" s="1">
+        <v>639</v>
+      </c>
+      <c r="C25" s="1">
+        <v>9826</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1112</v>
+      </c>
+      <c r="E25" s="1">
+        <v>467</v>
+      </c>
+      <c r="F25" s="1">
+        <v>54</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2239</v>
+      </c>
+      <c r="H25" s="1">
+        <v>276</v>
+      </c>
+      <c r="I25" s="1">
+        <v>1478</v>
+      </c>
+      <c r="J25" s="1">
+        <v>649</v>
+      </c>
+      <c r="K25" s="1">
+        <v>2400</v>
+      </c>
+      <c r="L25" s="1">
+        <v>535</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N25" s="1">
+        <v>3825</v>
+      </c>
+      <c r="O25" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P25" s="42"/>
-      <c r="Q25" s="35" t="s">
+      <c r="P25" s="41">
+        <v>1302</v>
+      </c>
+      <c r="Q25" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="36" t="s">
+      <c r="B26" s="2">
+        <v>711</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="36" t="s">
+      <c r="P26" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="35" t="s">
+      <c r="B27" s="1">
+        <v>1026</v>
+      </c>
+      <c r="C27" s="1">
+        <v>10270</v>
+      </c>
+      <c r="D27" s="1">
+        <v>651</v>
+      </c>
+      <c r="E27" s="1">
+        <v>839</v>
+      </c>
+      <c r="F27" s="1">
+        <v>442</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1252</v>
+      </c>
+      <c r="H27" s="1">
+        <v>155</v>
+      </c>
+      <c r="I27" s="1">
+        <v>2314</v>
+      </c>
+      <c r="J27" s="1">
+        <v>500</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1695</v>
+      </c>
+      <c r="L27" s="1">
+        <v>229</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1661</v>
+      </c>
+      <c r="O27" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P27" s="42"/>
-      <c r="Q27" s="35" t="s">
+      <c r="P27" s="41">
+        <v>1778</v>
+      </c>
+      <c r="Q27" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="36" t="s">
+      <c r="B28" s="2">
+        <v>683</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3541</v>
+      </c>
+      <c r="D28" s="2">
+        <v>517</v>
+      </c>
+      <c r="E28" s="2">
+        <v>266</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2">
+        <v>942</v>
+      </c>
+      <c r="H28" s="2">
+        <v>12</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1035</v>
+      </c>
+      <c r="J28" s="2">
+        <v>217</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1674</v>
+      </c>
+      <c r="L28" s="2">
+        <v>175</v>
+      </c>
+      <c r="M28" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N28" s="2">
+        <v>919</v>
+      </c>
+      <c r="O28" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="36" t="s">
+      <c r="P28" s="42">
+        <v>1021</v>
+      </c>
+      <c r="Q28" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="35" t="s">
+      <c r="B29" s="1">
+        <v>1914</v>
+      </c>
+      <c r="C29" s="1">
+        <v>13062</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1461</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1121</v>
+      </c>
+      <c r="F29" s="1">
+        <v>421</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2369</v>
+      </c>
+      <c r="H29" s="1">
+        <v>111</v>
+      </c>
+      <c r="I29" s="1">
+        <v>5054</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1386</v>
+      </c>
+      <c r="K29" s="1">
+        <v>11222</v>
+      </c>
+      <c r="L29" s="1">
+        <v>1253</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N29" s="1">
+        <v>4375</v>
+      </c>
+      <c r="O29" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P29" s="42"/>
-      <c r="Q29" s="35" t="s">
+      <c r="P29" s="41">
+        <v>5246</v>
+      </c>
+      <c r="Q29" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="36" t="s">
+      <c r="B30" s="2">
+        <v>279</v>
+      </c>
+      <c r="C30" s="2">
+        <v>583</v>
+      </c>
+      <c r="D30" s="2">
+        <v>68</v>
+      </c>
+      <c r="E30" s="2">
+        <v>56</v>
+      </c>
+      <c r="F30" s="2">
+        <v>7</v>
+      </c>
+      <c r="G30" s="2">
+        <v>28</v>
+      </c>
+      <c r="H30" s="2">
+        <v>350</v>
+      </c>
+      <c r="I30" s="2">
+        <v>273</v>
+      </c>
+      <c r="J30" s="2">
+        <v>19</v>
+      </c>
+      <c r="K30" s="2">
+        <v>145</v>
+      </c>
+      <c r="L30" s="2">
+        <v>6</v>
+      </c>
+      <c r="M30" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N30" s="2">
+        <v>162</v>
+      </c>
+      <c r="O30" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="36" t="s">
+      <c r="P30" s="42">
+        <v>317</v>
+      </c>
+      <c r="Q30" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="35" t="s">
+      <c r="B31" s="1">
+        <v>565</v>
+      </c>
+      <c r="C31" s="1">
+        <v>11769</v>
+      </c>
+      <c r="D31" s="1">
+        <v>709</v>
+      </c>
+      <c r="E31" s="1">
+        <v>927</v>
+      </c>
+      <c r="F31" s="1">
+        <v>296</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2856</v>
+      </c>
+      <c r="H31" s="1">
+        <v>768</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1031</v>
+      </c>
+      <c r="J31" s="1">
+        <v>387</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1382</v>
+      </c>
+      <c r="L31" s="1">
+        <v>274</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N31" s="1">
+        <v>2273</v>
+      </c>
+      <c r="O31" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P31" s="42"/>
-      <c r="Q31" s="35" t="s">
+      <c r="P31" s="41">
+        <v>637</v>
+      </c>
+      <c r="Q31" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="36" t="s">
+      <c r="B32" s="2">
+        <v>1934</v>
+      </c>
+      <c r="C32" s="2">
+        <v>16878</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1099</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2290</v>
+      </c>
+      <c r="F32" s="2">
+        <v>1362</v>
+      </c>
+      <c r="G32" s="2">
+        <v>2026</v>
+      </c>
+      <c r="H32" s="2">
+        <v>792</v>
+      </c>
+      <c r="I32" s="2">
+        <v>5710</v>
+      </c>
+      <c r="J32" s="2">
+        <v>3670</v>
+      </c>
+      <c r="K32" s="2">
+        <v>3567</v>
+      </c>
+      <c r="L32" s="2">
+        <v>597</v>
+      </c>
+      <c r="M32" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N32" s="2">
+        <v>5179</v>
+      </c>
+      <c r="O32" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="36" t="s">
+      <c r="P32" s="42">
+        <v>4642</v>
+      </c>
+      <c r="Q32" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="35" t="s">
+      <c r="B33" s="1">
+        <v>2678</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15985</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1277</v>
+      </c>
+      <c r="E33" s="1">
+        <v>292</v>
+      </c>
+      <c r="F33" s="1">
+        <v>336</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2214</v>
+      </c>
+      <c r="H33" s="1">
+        <v>184</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4638</v>
+      </c>
+      <c r="J33" s="1">
+        <v>935</v>
+      </c>
+      <c r="K33" s="1">
+        <v>3993</v>
+      </c>
+      <c r="L33" s="1">
+        <v>348</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N33" s="1">
+        <v>3618</v>
+      </c>
+      <c r="O33" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P33" s="42"/>
-      <c r="Q33" s="35" t="s">
+      <c r="P33" s="41">
+        <v>3812</v>
+      </c>
+      <c r="Q33" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="36" t="s">
+      <c r="B34" s="2">
+        <v>1159</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8797</v>
+      </c>
+      <c r="D34" s="2">
+        <v>338</v>
+      </c>
+      <c r="E34" s="2">
+        <v>298</v>
+      </c>
+      <c r="F34" s="2">
+        <v>350</v>
+      </c>
+      <c r="G34" s="2">
+        <v>1178</v>
+      </c>
+      <c r="H34" s="2">
+        <v>115</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2404</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1174</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1517</v>
+      </c>
+      <c r="L34" s="2">
+        <v>278</v>
+      </c>
+      <c r="M34" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N34" s="2">
+        <v>1264</v>
+      </c>
+      <c r="O34" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P34" s="43"/>
-      <c r="Q34" s="36" t="s">
+      <c r="P34" s="42">
+        <v>1478</v>
+      </c>
+      <c r="Q34" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="35" t="s">
+      <c r="B35" s="1">
+        <v>8607</v>
+      </c>
+      <c r="C35" s="1">
+        <v>59583</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5817</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4141</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2358</v>
+      </c>
+      <c r="G35" s="1">
+        <v>6013</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3112</v>
+      </c>
+      <c r="I35" s="1">
+        <v>19519</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5576</v>
+      </c>
+      <c r="K35" s="1">
+        <v>31503</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2942</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N35" s="1">
+        <v>11668</v>
+      </c>
+      <c r="O35" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P35" s="42"/>
-      <c r="Q35" s="35" t="s">
+      <c r="P35" s="41">
+        <v>10204</v>
+      </c>
+      <c r="Q35" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="36" t="s">
+      <c r="B36" s="2">
+        <v>1156</v>
+      </c>
+      <c r="C36" s="2">
+        <v>15712</v>
+      </c>
+      <c r="D36" s="2">
+        <v>880</v>
+      </c>
+      <c r="E36" s="2">
+        <v>829</v>
+      </c>
+      <c r="F36" s="2">
+        <v>443</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5328</v>
+      </c>
+      <c r="H36" s="2">
+        <v>911</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2566</v>
+      </c>
+      <c r="J36" s="2">
+        <v>1559</v>
+      </c>
+      <c r="K36" s="2">
+        <v>2228</v>
+      </c>
+      <c r="L36" s="2">
+        <v>527</v>
+      </c>
+      <c r="M36" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N36" s="2">
+        <v>5139</v>
+      </c>
+      <c r="O36" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="36" t="s">
+      <c r="P36" s="42">
+        <v>1508</v>
+      </c>
+      <c r="Q36" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>141</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="35" t="s">
+      <c r="B37" s="1">
+        <v>5233</v>
+      </c>
+      <c r="C37" s="1">
+        <v>24377</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1326</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2976</v>
+      </c>
+      <c r="F37" s="1">
+        <v>976</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1562</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1251</v>
+      </c>
+      <c r="I37" s="1">
+        <v>7490</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5063</v>
+      </c>
+      <c r="K37" s="1">
+        <v>14457</v>
+      </c>
+      <c r="L37" s="1">
+        <v>1507</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N37" s="1">
+        <v>2883</v>
+      </c>
+      <c r="O37" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="35" t="s">
+      <c r="P37" s="41">
+        <v>4571</v>
+      </c>
+      <c r="Q37" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="36" t="s">
+      <c r="B38" s="2">
+        <v>359</v>
+      </c>
+      <c r="C38" s="2">
+        <v>12606</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1608</v>
+      </c>
+      <c r="E38" s="2">
+        <v>1134</v>
+      </c>
+      <c r="F38" s="2">
+        <v>224</v>
+      </c>
+      <c r="G38" s="2">
+        <v>632</v>
+      </c>
+      <c r="H38" s="2">
+        <v>50</v>
+      </c>
+      <c r="I38" s="2">
+        <v>546</v>
+      </c>
+      <c r="J38" s="2">
+        <v>76</v>
+      </c>
+      <c r="K38" s="2">
+        <v>932</v>
+      </c>
+      <c r="L38" s="2">
+        <v>19</v>
+      </c>
+      <c r="M38" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N38" s="2">
+        <v>1575</v>
+      </c>
+      <c r="O38" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="36" t="s">
+      <c r="P38" s="42">
+        <v>267</v>
+      </c>
+      <c r="Q38" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="35" t="s">
+      <c r="B39" s="5">
+        <v>434</v>
+      </c>
+      <c r="C39" s="5">
+        <v>5649</v>
+      </c>
+      <c r="D39" s="5">
+        <v>525</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1019</v>
+      </c>
+      <c r="F39" s="5">
+        <v>155</v>
+      </c>
+      <c r="G39" s="5">
+        <v>1192</v>
+      </c>
+      <c r="H39" s="5">
+        <v>87</v>
+      </c>
+      <c r="I39" s="5">
+        <v>417</v>
+      </c>
+      <c r="J39" s="5">
+        <v>76</v>
+      </c>
+      <c r="K39" s="5">
+        <v>975</v>
+      </c>
+      <c r="L39" s="5">
+        <v>57</v>
+      </c>
+      <c r="M39" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N39" s="5">
+        <v>883</v>
+      </c>
+      <c r="O39" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="P39" s="42"/>
-      <c r="Q39" s="35" t="s">
+      <c r="P39" s="44">
+        <v>1152</v>
+      </c>
+      <c r="Q39" s="37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="38" t="s">
+      <c r="B40" s="5">
+        <v>329</v>
+      </c>
+      <c r="C40" s="5">
+        <v>12769</v>
+      </c>
+      <c r="D40" s="5">
+        <v>697</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3052</v>
+      </c>
+      <c r="F40" s="5">
+        <v>1</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <v>46</v>
+      </c>
+      <c r="I40" s="5">
+        <v>61</v>
+      </c>
+      <c r="J40" s="5">
+        <v>3</v>
+      </c>
+      <c r="K40" s="5">
+        <v>3333</v>
+      </c>
+      <c r="L40" s="5">
+        <v>7</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N40" s="5">
+        <v>697</v>
+      </c>
+      <c r="O40" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="P40" s="45"/>
-      <c r="Q40" s="38" t="s">
+      <c r="P40" s="44">
+        <v>258</v>
+      </c>
+      <c r="Q40" s="37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="38" t="s">
+      <c r="B41" s="5">
+        <v>568</v>
+      </c>
+      <c r="C41" s="5">
+        <v>15822</v>
+      </c>
+      <c r="D41" s="5">
+        <v>101</v>
+      </c>
+      <c r="E41" s="5">
+        <v>125</v>
+      </c>
+      <c r="F41" s="5">
+        <v>6</v>
+      </c>
+      <c r="G41" s="5">
+        <v>13</v>
+      </c>
+      <c r="H41" s="5">
+        <v>230</v>
+      </c>
+      <c r="I41" s="5">
+        <v>43</v>
+      </c>
+      <c r="J41" s="5">
+        <v>9</v>
+      </c>
+      <c r="K41" s="5">
+        <v>14653</v>
+      </c>
+      <c r="L41" s="5">
+        <v>7</v>
+      </c>
+      <c r="M41" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N41" s="5">
+        <v>711</v>
+      </c>
+      <c r="O41" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="P41" s="45"/>
-      <c r="Q41" s="38" t="s">
+      <c r="P41" s="44">
+        <v>570</v>
+      </c>
+      <c r="Q41" s="37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="38" t="s">
+      <c r="B42" s="5">
+        <v>510</v>
+      </c>
+      <c r="C42" s="5">
+        <v>3917</v>
+      </c>
+      <c r="D42" s="5">
+        <v>96</v>
+      </c>
+      <c r="E42" s="5">
+        <v>10</v>
+      </c>
+      <c r="F42" s="5">
+        <v>0</v>
+      </c>
+      <c r="G42" s="5">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <v>101</v>
+      </c>
+      <c r="I42" s="5">
+        <v>345</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>39</v>
+      </c>
+      <c r="L42" s="5">
+        <v>0</v>
+      </c>
+      <c r="M42" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N42" s="5">
+        <v>183</v>
+      </c>
+      <c r="O42" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="P42" s="45"/>
-      <c r="Q42" s="38" t="s">
+      <c r="P42" s="44">
+        <v>60</v>
+      </c>
+      <c r="Q42" s="37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="38" t="s">
+      <c r="B43" s="5">
+        <v>287</v>
+      </c>
+      <c r="C43" s="5">
+        <v>4699</v>
+      </c>
+      <c r="D43" s="5">
+        <v>169</v>
+      </c>
+      <c r="E43" s="5">
+        <v>14</v>
+      </c>
+      <c r="F43" s="5">
+        <v>0</v>
+      </c>
+      <c r="G43" s="5">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <v>118</v>
+      </c>
+      <c r="I43" s="5">
+        <v>22</v>
+      </c>
+      <c r="J43" s="5">
+        <v>1</v>
+      </c>
+      <c r="K43" s="5">
+        <v>1643</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0</v>
+      </c>
+      <c r="M43" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="N43" s="5">
+        <v>306</v>
+      </c>
+      <c r="O43" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="38" t="s">
+      <c r="P43" s="44">
+        <v>129</v>
+      </c>
+      <c r="Q43" s="37" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="38" t="s">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="1">
+        <v>263</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6031</v>
+      </c>
+      <c r="D44" s="1">
+        <v>376</v>
+      </c>
+      <c r="E44" s="1">
+        <v>233</v>
+      </c>
+      <c r="F44" s="1">
+        <v>80</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2272</v>
+      </c>
+      <c r="H44" s="1">
+        <v>72</v>
+      </c>
+      <c r="I44" s="1">
+        <v>996</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1288</v>
+      </c>
+      <c r="K44" s="1">
+        <v>867</v>
+      </c>
+      <c r="L44" s="1">
+        <v>64</v>
+      </c>
+      <c r="M44" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1845</v>
+      </c>
+      <c r="O44" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="38" t="s">
+      <c r="P44" s="41">
+        <v>523</v>
+      </c>
+      <c r="Q44" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="1"/>
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1300</v>
+      </c>
+      <c r="C45" s="2">
+        <v>12470</v>
+      </c>
+      <c r="D45" s="2">
+        <v>915</v>
+      </c>
+      <c r="E45" s="2">
+        <v>472</v>
+      </c>
+      <c r="F45" s="2">
+        <v>5</v>
+      </c>
+      <c r="G45" s="2">
+        <v>3392</v>
+      </c>
+      <c r="H45" s="2">
+        <v>104</v>
+      </c>
+      <c r="I45" s="2">
+        <v>3215</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2353</v>
+      </c>
+      <c r="K45" s="2">
+        <v>7990</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1626</v>
+      </c>
+      <c r="M45" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N45" s="2">
+        <v>5284</v>
+      </c>
       <c r="O45" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P45" s="42"/>
+      <c r="P45" s="42">
+        <v>4688</v>
+      </c>
       <c r="Q45" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="36" t="s">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B46" s="1">
+        <v>1624</v>
+      </c>
+      <c r="C46" s="1">
+        <v>26211</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1683</v>
+      </c>
+      <c r="E46" s="1">
+        <v>2550</v>
+      </c>
+      <c r="F46" s="1">
+        <v>1325</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1855</v>
+      </c>
+      <c r="H46" s="1">
+        <v>648</v>
+      </c>
+      <c r="I46" s="1">
+        <v>5724</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1701</v>
+      </c>
+      <c r="K46" s="1">
+        <v>19249</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1209</v>
+      </c>
+      <c r="M46" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N46" s="1">
+        <v>6033</v>
+      </c>
+      <c r="O46" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P46" s="43"/>
-      <c r="Q46" s="36" t="s">
+      <c r="P46" s="41">
+        <v>8105</v>
+      </c>
+      <c r="Q46" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="1"/>
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="2">
+        <v>1631</v>
+      </c>
+      <c r="C47" s="2">
+        <v>17340</v>
+      </c>
+      <c r="D47" s="2">
+        <v>739</v>
+      </c>
+      <c r="E47" s="2">
+        <v>556</v>
+      </c>
+      <c r="F47" s="2">
+        <v>1216</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2882</v>
+      </c>
+      <c r="H47" s="2">
+        <v>27</v>
+      </c>
+      <c r="I47" s="2">
+        <v>4357</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1046</v>
+      </c>
+      <c r="K47" s="2">
+        <v>7294</v>
+      </c>
+      <c r="L47" s="2">
+        <v>463</v>
+      </c>
+      <c r="M47" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N47" s="2">
+        <v>5710</v>
+      </c>
       <c r="O47" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P47" s="42"/>
+      <c r="P47" s="42">
+        <v>1854</v>
+      </c>
       <c r="Q47" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="15"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="36" t="s">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1063</v>
+      </c>
+      <c r="C48" s="1">
+        <v>8351</v>
+      </c>
+      <c r="D48" s="1">
+        <v>959</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2141</v>
+      </c>
+      <c r="F48" s="1">
+        <v>114</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1198</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1409</v>
+      </c>
+      <c r="I48" s="1">
+        <v>3179</v>
+      </c>
+      <c r="J48" s="1">
+        <v>901</v>
+      </c>
+      <c r="K48" s="1">
+        <v>5921</v>
+      </c>
+      <c r="L48" s="1">
+        <v>625</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N48" s="1">
+        <v>2122</v>
+      </c>
+      <c r="O48" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P48" s="43"/>
-      <c r="Q48" s="36" t="s">
+      <c r="P48" s="41">
+        <v>4819</v>
+      </c>
+      <c r="Q48" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="1"/>
+    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="2">
+        <v>5441</v>
+      </c>
+      <c r="C49" s="2">
+        <v>22160</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2208</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1836</v>
+      </c>
+      <c r="F49" s="2">
+        <v>838</v>
+      </c>
+      <c r="G49" s="2">
+        <v>2497</v>
+      </c>
+      <c r="H49" s="2">
+        <v>587</v>
+      </c>
+      <c r="I49" s="2">
+        <v>11118</v>
+      </c>
+      <c r="J49" s="2">
+        <v>4652</v>
+      </c>
+      <c r="K49" s="2">
+        <v>13148</v>
+      </c>
+      <c r="L49" s="2">
+        <v>2272</v>
+      </c>
+      <c r="M49" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N49" s="2">
+        <v>5223</v>
+      </c>
       <c r="O49" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P49" s="42"/>
+      <c r="P49" s="42">
+        <v>7746</v>
+      </c>
       <c r="Q49" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="15"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="36" t="s">
+    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B50" s="1">
+        <v>591</v>
+      </c>
+      <c r="C50" s="1">
+        <v>7312</v>
+      </c>
+      <c r="D50" s="1">
+        <v>329</v>
+      </c>
+      <c r="E50" s="1">
+        <v>605</v>
+      </c>
+      <c r="F50" s="1">
+        <v>95</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1393</v>
+      </c>
+      <c r="H50" s="1">
+        <v>44</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1753</v>
+      </c>
+      <c r="J50" s="1">
+        <v>290</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1958</v>
+      </c>
+      <c r="L50" s="1">
+        <v>261</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1449</v>
+      </c>
+      <c r="O50" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P50" s="43"/>
-      <c r="Q50" s="36" t="s">
+      <c r="P50" s="41">
+        <v>1678</v>
+      </c>
+      <c r="Q50" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="1"/>
+    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1176</v>
+      </c>
+      <c r="C51" s="2">
+        <v>18076</v>
+      </c>
+      <c r="D51" s="2">
+        <v>856</v>
+      </c>
+      <c r="E51" s="2">
+        <v>1395</v>
+      </c>
+      <c r="F51" s="2">
+        <v>463</v>
+      </c>
+      <c r="G51" s="2">
+        <v>2770</v>
+      </c>
+      <c r="H51" s="2">
+        <v>755</v>
+      </c>
+      <c r="I51" s="2">
+        <v>3172</v>
+      </c>
+      <c r="J51" s="2">
+        <v>857</v>
+      </c>
+      <c r="K51" s="2">
+        <v>5406</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1321</v>
+      </c>
+      <c r="M51" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N51" s="2">
+        <v>3385</v>
+      </c>
       <c r="O51" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P51" s="42"/>
+      <c r="P51" s="42">
+        <v>3199</v>
+      </c>
       <c r="Q51" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="15"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="36" t="s">
+    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="1">
+        <v>345</v>
+      </c>
+      <c r="C52" s="1">
+        <v>9272</v>
+      </c>
+      <c r="D52" s="1">
+        <v>456</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1468</v>
+      </c>
+      <c r="F52" s="1">
+        <v>384</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1472</v>
+      </c>
+      <c r="H52" s="1">
+        <v>132</v>
+      </c>
+      <c r="I52" s="1">
+        <v>542</v>
+      </c>
+      <c r="J52" s="1">
+        <v>386</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1174</v>
+      </c>
+      <c r="L52" s="1">
+        <v>97</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1931</v>
+      </c>
+      <c r="O52" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="36" t="s">
+      <c r="P52" s="41">
+        <v>1316</v>
+      </c>
+      <c r="Q52" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="1"/>
+    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="2">
+        <v>730</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12381</v>
+      </c>
+      <c r="D53" s="2">
+        <v>576</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1018</v>
+      </c>
+      <c r="F53" s="2">
+        <v>121</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1980</v>
+      </c>
+      <c r="H53" s="2">
+        <v>46</v>
+      </c>
+      <c r="I53" s="2">
+        <v>639</v>
+      </c>
+      <c r="J53" s="2">
+        <v>192</v>
+      </c>
+      <c r="K53" s="2">
+        <v>906</v>
+      </c>
+      <c r="L53" s="2">
+        <v>188</v>
+      </c>
+      <c r="M53" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="N53" s="2">
+        <v>2325</v>
+      </c>
       <c r="O53" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="P53" s="42"/>
+      <c r="P53" s="42">
+        <v>265</v>
+      </c>
       <c r="Q53" s="35" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="15"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="36" t="s">
+    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" s="1">
+        <v>823</v>
+      </c>
+      <c r="C54" s="1">
+        <v>6540</v>
+      </c>
+      <c r="D54" s="1">
+        <v>528</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1625</v>
+      </c>
+      <c r="F54" s="1">
+        <v>70</v>
+      </c>
+      <c r="G54" s="1">
+        <v>1120</v>
+      </c>
+      <c r="H54" s="1">
+        <v>6</v>
+      </c>
+      <c r="I54" s="1">
+        <v>1661</v>
+      </c>
+      <c r="J54" s="1">
+        <v>142</v>
+      </c>
+      <c r="K54" s="1">
+        <v>3216</v>
+      </c>
+      <c r="L54" s="1">
+        <v>362</v>
+      </c>
+      <c r="M54" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1873</v>
+      </c>
+      <c r="O54" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="P54" s="43"/>
-      <c r="Q54" s="36" t="s">
+      <c r="P54" s="41">
+        <v>3990</v>
+      </c>
+      <c r="Q54" s="34" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="35" t="s">
+    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" s="20">
+        <v>2256</v>
+      </c>
+      <c r="C55" s="20">
+        <v>19446</v>
+      </c>
+      <c r="D55" s="20">
+        <v>2094</v>
+      </c>
+      <c r="E55" s="20">
+        <v>783</v>
+      </c>
+      <c r="F55" s="20">
+        <v>631</v>
+      </c>
+      <c r="G55" s="20">
+        <v>5451</v>
+      </c>
+      <c r="H55" s="20">
+        <v>783</v>
+      </c>
+      <c r="I55" s="20">
+        <v>3978</v>
+      </c>
+      <c r="J55" s="20">
+        <v>2062</v>
+      </c>
+      <c r="K55" s="20">
+        <v>4103</v>
+      </c>
+      <c r="L55" s="20">
+        <v>670</v>
+      </c>
+      <c r="M55" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="N55" s="20">
+        <v>7134</v>
+      </c>
+      <c r="O55" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="P55" s="42"/>
-      <c r="Q55" s="35" t="s">
+      <c r="P55" s="45">
+        <v>4645</v>
+      </c>
+      <c r="Q55" s="38" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="39" t="s">
+    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="B56" s="22">
+        <v>1694</v>
+      </c>
+      <c r="C56" s="22">
+        <v>37207</v>
+      </c>
+      <c r="D56" s="22">
+        <v>1063</v>
+      </c>
+      <c r="E56" s="22">
+        <v>3201</v>
+      </c>
+      <c r="F56" s="22">
+        <v>7</v>
+      </c>
+      <c r="G56" s="22">
+        <v>13</v>
+      </c>
+      <c r="H56" s="22">
+        <v>495</v>
+      </c>
+      <c r="I56" s="22">
+        <v>471</v>
+      </c>
+      <c r="J56" s="22">
+        <v>13</v>
+      </c>
+      <c r="K56" s="22">
+        <v>19668</v>
+      </c>
+      <c r="L56" s="22">
+        <v>14</v>
+      </c>
+      <c r="M56" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="N56" s="22">
+        <v>1897</v>
+      </c>
+      <c r="O56" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="P56" s="46"/>
-      <c r="Q56" s="39" t="s">
+      <c r="P56" s="22">
+        <v>1017</v>
+      </c>
+      <c r="Q56" s="31" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="32" t="s">
+    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="21">
+        <v>112544</v>
+      </c>
+      <c r="C57" s="21">
+        <v>805920</v>
+      </c>
+      <c r="D57" s="21">
+        <v>56106</v>
+      </c>
+      <c r="E57" s="21">
+        <v>58272</v>
+      </c>
+      <c r="F57" s="21">
+        <v>28572</v>
+      </c>
+      <c r="G57" s="21">
+        <v>110966</v>
+      </c>
+      <c r="H57" s="21">
+        <v>27013</v>
+      </c>
+      <c r="I57" s="21">
+        <v>207823</v>
+      </c>
+      <c r="J57" s="21">
+        <v>83950</v>
+      </c>
+      <c r="K57" s="21">
+        <v>353044</v>
+      </c>
+      <c r="L57" s="21">
+        <v>36499</v>
+      </c>
+      <c r="M57" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="N57" s="21">
+        <v>163610</v>
+      </c>
+      <c r="O57" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="P57" s="22"/>
-      <c r="Q57" s="32" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="40" t="s">
-        <v>193</v>
-      </c>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="40" t="s">
+      <c r="P57" s="46">
+        <v>159385</v>
+      </c>
+      <c r="Q57" s="39" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3164,99 +4710,102 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72339743-29E1-4007-A046-5505500D715D}">
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:Y58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="7" customWidth="1"/>
-    <col min="2" max="21" width="16.7109375" style="7" customWidth="1"/>
-    <col min="22" max="22" width="23.85546875" style="7" customWidth="1"/>
-    <col min="23" max="23" width="16.7109375" style="7" customWidth="1"/>
-    <col min="24" max="24" width="23.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="44.7265625" style="7" customWidth="1"/>
+    <col min="2" max="21" width="16.7265625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="23.81640625" style="7" customWidth="1"/>
+    <col min="23" max="23" width="16.7265625" style="7" customWidth="1"/>
+    <col min="24" max="24" width="23.81640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:25" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="47" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="47" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="47" t="s">
         <v>175</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="47" t="s">
         <v>182</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="47" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="47" t="s">
         <v>176</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="47" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y1" s="9">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
@@ -3326,18 +4875,22 @@
       <c r="U2" s="1">
         <v>11835</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W2" s="1">
         <v>10922</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="Y2" s="9">
+        <f>Y1</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A3" s="23" t="s">
         <v>107</v>
       </c>
       <c r="B3" s="2">
@@ -3406,17 +4959,21 @@
       <c r="U3" s="2">
         <v>5218</v>
       </c>
-      <c r="V3" s="28" t="s">
+      <c r="V3" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W3" s="2">
         <v>3882</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y3" s="9">
+        <f t="shared" ref="Y3:Y58" si="6">Y2</f>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
@@ -3486,18 +5043,22 @@
       <c r="U4" s="1">
         <v>9894</v>
       </c>
-      <c r="V4" s="27" t="s">
+      <c r="V4" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W4" s="1">
         <v>10614</v>
       </c>
-      <c r="X4" s="27" t="s">
+      <c r="X4" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="Y4" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A5" s="23" t="s">
         <v>109</v>
       </c>
       <c r="B5" s="2">
@@ -3566,17 +5127,21 @@
       <c r="U5" s="2">
         <v>303</v>
       </c>
-      <c r="V5" s="28" t="s">
+      <c r="V5" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W5" s="2">
         <v>1094</v>
       </c>
-      <c r="X5" s="28" t="s">
+      <c r="X5" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y5" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
@@ -3646,18 +5211,22 @@
       <c r="U6" s="1">
         <v>9124</v>
       </c>
-      <c r="V6" s="27" t="s">
+      <c r="V6" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W6" s="1">
         <v>12756</v>
       </c>
-      <c r="X6" s="27" t="s">
+      <c r="X6" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
+      <c r="Y6" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A7" s="23" t="s">
         <v>111</v>
       </c>
       <c r="B7" s="2">
@@ -3726,17 +5295,21 @@
       <c r="U7" s="2">
         <v>1817</v>
       </c>
-      <c r="V7" s="28" t="s">
+      <c r="V7" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W7" s="2">
         <v>1699</v>
       </c>
-      <c r="X7" s="28" t="s">
+      <c r="X7" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y7" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
@@ -3806,18 +5379,22 @@
       <c r="U8" s="1">
         <v>1260</v>
       </c>
-      <c r="V8" s="27" t="s">
+      <c r="V8" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W8" s="1">
         <v>1878</v>
       </c>
-      <c r="X8" s="27" t="s">
+      <c r="X8" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="Y8" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A9" s="23" t="s">
         <v>113</v>
       </c>
       <c r="B9" s="2">
@@ -3886,17 +5463,21 @@
       <c r="U9" s="2">
         <v>340</v>
       </c>
-      <c r="V9" s="28" t="s">
+      <c r="V9" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W9" s="2">
         <v>647</v>
       </c>
-      <c r="X9" s="28" t="s">
+      <c r="X9" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y9" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
@@ -3966,18 +5547,22 @@
       <c r="U10" s="1">
         <v>4</v>
       </c>
-      <c r="V10" s="27" t="s">
+      <c r="V10" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W10" s="1">
         <v>475</v>
       </c>
-      <c r="X10" s="27" t="s">
+      <c r="X10" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="Y10" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A11" s="23" t="s">
         <v>115</v>
       </c>
       <c r="B11" s="2">
@@ -4046,17 +5631,21 @@
       <c r="U11" s="2">
         <v>0</v>
       </c>
-      <c r="V11" s="28" t="s">
+      <c r="V11" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W11" s="2">
         <v>0</v>
       </c>
-      <c r="X11" s="28" t="s">
+      <c r="X11" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y11" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>116</v>
       </c>
@@ -4126,17 +5715,21 @@
       <c r="U12" s="3">
         <v>448</v>
       </c>
-      <c r="V12" s="29" t="s">
+      <c r="V12" s="28" t="s">
         <v>180</v>
       </c>
       <c r="W12" s="3">
         <v>304</v>
       </c>
-      <c r="X12" s="29" t="s">
+      <c r="X12" s="28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y12" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
@@ -4206,17 +5799,21 @@
       <c r="U13" s="3">
         <v>1477</v>
       </c>
-      <c r="V13" s="29" t="s">
+      <c r="V13" s="28" t="s">
         <v>180</v>
       </c>
       <c r="W13" s="3">
         <v>1539</v>
       </c>
-      <c r="X13" s="29" t="s">
+      <c r="X13" s="28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y13" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>118</v>
       </c>
@@ -4286,17 +5883,21 @@
       <c r="U14" s="3">
         <v>1542</v>
       </c>
-      <c r="V14" s="29" t="s">
+      <c r="V14" s="28" t="s">
         <v>180</v>
       </c>
       <c r="W14" s="3">
         <v>2588</v>
       </c>
-      <c r="X14" s="29" t="s">
+      <c r="X14" s="28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y14" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>119</v>
       </c>
@@ -4366,18 +5967,22 @@
       <c r="U15" s="3">
         <v>618</v>
       </c>
-      <c r="V15" s="29" t="s">
+      <c r="V15" s="28" t="s">
         <v>180</v>
       </c>
       <c r="W15" s="3">
         <v>2778</v>
       </c>
-      <c r="X15" s="29" t="s">
+      <c r="X15" s="28" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="Y15" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A16" s="23" t="s">
         <v>120</v>
       </c>
       <c r="B16" s="2">
@@ -4446,17 +6051,21 @@
       <c r="U16" s="2">
         <v>535</v>
       </c>
-      <c r="V16" s="28" t="s">
+      <c r="V16" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W16" s="2">
         <v>1351</v>
       </c>
-      <c r="X16" s="28" t="s">
+      <c r="X16" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y16" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>121</v>
       </c>
@@ -4526,18 +6135,22 @@
       <c r="U17" s="1">
         <v>5174</v>
       </c>
-      <c r="V17" s="27" t="s">
+      <c r="V17" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W17" s="1">
         <v>3914</v>
       </c>
-      <c r="X17" s="27" t="s">
+      <c r="X17" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="24" t="s">
+      <c r="Y17" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A18" s="23" t="s">
         <v>122</v>
       </c>
       <c r="B18" s="2">
@@ -4606,17 +6219,21 @@
       <c r="U18" s="2">
         <v>546</v>
       </c>
-      <c r="V18" s="28" t="s">
+      <c r="V18" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W18" s="2">
         <v>992</v>
       </c>
-      <c r="X18" s="28" t="s">
+      <c r="X18" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y18" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>123</v>
       </c>
@@ -4686,18 +6303,22 @@
       <c r="U19" s="1">
         <v>4293</v>
       </c>
-      <c r="V19" s="27" t="s">
+      <c r="V19" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W19" s="1">
         <v>3866</v>
       </c>
-      <c r="X19" s="27" t="s">
+      <c r="X19" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20" s="24" t="s">
+      <c r="Y19" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A20" s="23" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="2">
@@ -4766,17 +6387,21 @@
       <c r="U20" s="2">
         <v>185</v>
       </c>
-      <c r="V20" s="28" t="s">
+      <c r="V20" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W20" s="2">
         <v>627</v>
       </c>
-      <c r="X20" s="28" t="s">
+      <c r="X20" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y20" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
@@ -4846,18 +6471,22 @@
       <c r="U21" s="1">
         <v>4782</v>
       </c>
-      <c r="V21" s="27" t="s">
+      <c r="V21" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W21" s="1">
         <v>3099</v>
       </c>
-      <c r="X21" s="27" t="s">
+      <c r="X21" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
+      <c r="Y21" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A22" s="23" t="s">
         <v>126</v>
       </c>
       <c r="B22" s="2">
@@ -4926,17 +6555,21 @@
       <c r="U22" s="2">
         <v>335</v>
       </c>
-      <c r="V22" s="28" t="s">
+      <c r="V22" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W22" s="2">
         <v>1099</v>
       </c>
-      <c r="X22" s="28" t="s">
+      <c r="X22" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y22" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
@@ -5006,18 +6639,22 @@
       <c r="U23" s="1">
         <v>5685</v>
       </c>
-      <c r="V23" s="27" t="s">
+      <c r="V23" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W23" s="1">
         <v>3090</v>
       </c>
-      <c r="X23" s="27" t="s">
+      <c r="X23" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="Y23" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A24" s="23" t="s">
         <v>128</v>
       </c>
       <c r="B24" s="2">
@@ -5086,17 +6723,21 @@
       <c r="U24" s="2">
         <v>13846</v>
       </c>
-      <c r="V24" s="28" t="s">
+      <c r="V24" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W24" s="2">
         <v>10493</v>
       </c>
-      <c r="X24" s="28" t="s">
+      <c r="X24" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y24" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>129</v>
       </c>
@@ -5166,18 +6807,22 @@
       <c r="U25" s="1">
         <v>1335</v>
       </c>
-      <c r="V25" s="27" t="s">
+      <c r="V25" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W25" s="1">
         <v>3716</v>
       </c>
-      <c r="X25" s="27" t="s">
+      <c r="X25" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="Y25" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A26" s="23" t="s">
         <v>130</v>
       </c>
       <c r="B26" s="2">
@@ -5246,17 +6891,21 @@
       <c r="U26" s="2">
         <v>0</v>
       </c>
-      <c r="V26" s="28" t="s">
+      <c r="V26" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W26" s="2">
         <v>0</v>
       </c>
-      <c r="X26" s="28" t="s">
+      <c r="X26" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y26" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>131</v>
       </c>
@@ -5326,18 +6975,22 @@
       <c r="U27" s="1">
         <v>2033</v>
       </c>
-      <c r="V27" s="27" t="s">
+      <c r="V27" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W27" s="1">
         <v>1898</v>
       </c>
-      <c r="X27" s="27" t="s">
+      <c r="X27" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="Y27" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
       <c r="B28" s="2">
@@ -5406,17 +7059,21 @@
       <c r="U28" s="2">
         <v>789</v>
       </c>
-      <c r="V28" s="28" t="s">
+      <c r="V28" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W28" s="2">
         <v>863</v>
       </c>
-      <c r="X28" s="28" t="s">
+      <c r="X28" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y28" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>133</v>
       </c>
@@ -5486,18 +7143,22 @@
       <c r="U29" s="1">
         <v>4695</v>
       </c>
-      <c r="V29" s="27" t="s">
+      <c r="V29" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W29" s="1">
         <v>4144</v>
       </c>
-      <c r="X29" s="27" t="s">
+      <c r="X29" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="Y29" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A30" s="23" t="s">
         <v>134</v>
       </c>
       <c r="B30" s="2">
@@ -5566,17 +7227,21 @@
       <c r="U30" s="2">
         <v>435</v>
       </c>
-      <c r="V30" s="28" t="s">
+      <c r="V30" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W30" s="2">
         <v>168</v>
       </c>
-      <c r="X30" s="28" t="s">
+      <c r="X30" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y30" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>135</v>
       </c>
@@ -5646,18 +7311,22 @@
       <c r="U31" s="1">
         <v>477</v>
       </c>
-      <c r="V31" s="27" t="s">
+      <c r="V31" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W31" s="1">
         <v>2568</v>
       </c>
-      <c r="X31" s="27" t="s">
+      <c r="X31" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="Y31" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A32" s="23" t="s">
         <v>136</v>
       </c>
       <c r="B32" s="2">
@@ -5726,17 +7395,21 @@
       <c r="U32" s="2">
         <v>4470</v>
       </c>
-      <c r="V32" s="28" t="s">
+      <c r="V32" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W32" s="2">
         <v>5266</v>
       </c>
-      <c r="X32" s="28" t="s">
+      <c r="X32" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y32" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>137</v>
       </c>
@@ -5806,18 +7479,22 @@
       <c r="U33" s="1">
         <v>3214</v>
       </c>
-      <c r="V33" s="27" t="s">
+      <c r="V33" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W33" s="1">
         <v>5030</v>
       </c>
-      <c r="X33" s="27" t="s">
+      <c r="X33" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="Y33" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A34" s="23" t="s">
         <v>138</v>
       </c>
       <c r="B34" s="2">
@@ -5886,17 +7563,21 @@
       <c r="U34" s="2">
         <v>1623</v>
       </c>
-      <c r="V34" s="28" t="s">
+      <c r="V34" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W34" s="2">
         <v>1011</v>
       </c>
-      <c r="X34" s="28" t="s">
+      <c r="X34" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y34" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>139</v>
       </c>
@@ -5966,18 +7647,22 @@
       <c r="U35" s="1">
         <v>8585</v>
       </c>
-      <c r="V35" s="27" t="s">
+      <c r="V35" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W35" s="1">
         <v>10138</v>
       </c>
-      <c r="X35" s="27" t="s">
+      <c r="X35" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36" s="24" t="s">
+      <c r="Y35" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A36" s="23" t="s">
         <v>140</v>
       </c>
       <c r="B36" s="2">
@@ -6046,17 +7731,21 @@
       <c r="U36" s="2">
         <v>1668</v>
       </c>
-      <c r="V36" s="28" t="s">
+      <c r="V36" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W36" s="2">
         <v>4635</v>
       </c>
-      <c r="X36" s="28" t="s">
+      <c r="X36" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y36" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>141</v>
       </c>
@@ -6126,18 +7815,22 @@
       <c r="U37" s="1">
         <v>4102</v>
       </c>
-      <c r="V37" s="27" t="s">
+      <c r="V37" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W37" s="1">
         <v>3038</v>
       </c>
-      <c r="X37" s="27" t="s">
+      <c r="X37" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="Y37" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A38" s="23" t="s">
         <v>142</v>
       </c>
       <c r="B38" s="2">
@@ -6206,17 +7899,21 @@
       <c r="U38" s="2">
         <v>308</v>
       </c>
-      <c r="V38" s="28" t="s">
+      <c r="V38" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W38" s="2">
         <v>1660</v>
       </c>
-      <c r="X38" s="28" t="s">
+      <c r="X38" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y38" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>143</v>
       </c>
@@ -6286,17 +7983,21 @@
       <c r="U39" s="1">
         <v>859</v>
       </c>
-      <c r="V39" s="27" t="s">
+      <c r="V39" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W39" s="1">
         <v>811</v>
       </c>
-      <c r="X39" s="27" t="s">
+      <c r="X39" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y39" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>144</v>
       </c>
@@ -6366,17 +8067,21 @@
       <c r="U40" s="5">
         <v>178</v>
       </c>
-      <c r="V40" s="30" t="s">
+      <c r="V40" s="29" t="s">
         <v>180</v>
       </c>
       <c r="W40" s="5">
         <v>874</v>
       </c>
-      <c r="X40" s="30" t="s">
+      <c r="X40" s="29" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y40" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
@@ -6446,17 +8151,21 @@
       <c r="U41" s="5">
         <v>505</v>
       </c>
-      <c r="V41" s="30" t="s">
+      <c r="V41" s="29" t="s">
         <v>180</v>
       </c>
       <c r="W41" s="5">
         <v>866</v>
       </c>
-      <c r="X41" s="30" t="s">
+      <c r="X41" s="29" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y41" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>146</v>
       </c>
@@ -6526,17 +8235,21 @@
       <c r="U42" s="5">
         <v>77</v>
       </c>
-      <c r="V42" s="30" t="s">
+      <c r="V42" s="29" t="s">
         <v>180</v>
       </c>
       <c r="W42" s="5">
         <v>303</v>
       </c>
-      <c r="X42" s="30" t="s">
+      <c r="X42" s="29" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y42" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>147</v>
       </c>
@@ -6606,18 +8319,22 @@
       <c r="U43" s="5">
         <v>96</v>
       </c>
-      <c r="V43" s="30" t="s">
+      <c r="V43" s="29" t="s">
         <v>180</v>
       </c>
       <c r="W43" s="5">
         <v>250</v>
       </c>
-      <c r="X43" s="30" t="s">
+      <c r="X43" s="29" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" s="24" t="s">
+      <c r="Y43" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A44" s="18" t="s">
         <v>148</v>
       </c>
       <c r="B44" s="5">
@@ -6686,18 +8403,22 @@
       <c r="U44" s="5">
         <v>0</v>
       </c>
-      <c r="V44" s="30" t="s">
+      <c r="V44" s="29" t="s">
         <v>180</v>
       </c>
       <c r="W44" s="5">
         <v>0</v>
       </c>
-      <c r="X44" s="30" t="s">
+      <c r="X44" s="29" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="Y44" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A45" s="23" t="s">
         <v>149</v>
       </c>
       <c r="B45" s="1">
@@ -6766,18 +8487,22 @@
       <c r="U45" s="1">
         <v>645</v>
       </c>
-      <c r="V45" s="27" t="s">
+      <c r="V45" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W45" s="1">
         <v>1683</v>
       </c>
-      <c r="X45" s="27" t="s">
+      <c r="X45" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="Y45" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A46" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B46" s="2">
@@ -6846,18 +8571,22 @@
       <c r="U46" s="2">
         <v>4178</v>
       </c>
-      <c r="V46" s="28" t="s">
+      <c r="V46" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W46" s="2">
         <v>5312</v>
       </c>
-      <c r="X46" s="28" t="s">
+      <c r="X46" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="14" t="s">
+      <c r="Y46" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A47" s="23" t="s">
         <v>151</v>
       </c>
       <c r="B47" s="1">
@@ -6926,18 +8655,22 @@
       <c r="U47" s="1">
         <v>7745</v>
       </c>
-      <c r="V47" s="27" t="s">
+      <c r="V47" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W47" s="1">
         <v>5320</v>
       </c>
-      <c r="X47" s="27" t="s">
+      <c r="X47" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="Y47" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A48" s="14" t="s">
         <v>152</v>
       </c>
       <c r="B48" s="2">
@@ -7006,18 +8739,22 @@
       <c r="U48" s="2">
         <v>2165</v>
       </c>
-      <c r="V48" s="28" t="s">
+      <c r="V48" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W48" s="2">
         <v>5318</v>
       </c>
-      <c r="X48" s="28" t="s">
+      <c r="X48" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A49" s="14" t="s">
+      <c r="Y48" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A49" s="23" t="s">
         <v>153</v>
       </c>
       <c r="B49" s="1">
@@ -7086,18 +8823,22 @@
       <c r="U49" s="1">
         <v>4318</v>
       </c>
-      <c r="V49" s="27" t="s">
+      <c r="V49" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W49" s="1">
         <v>2384</v>
       </c>
-      <c r="X49" s="27" t="s">
+      <c r="X49" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
+      <c r="Y49" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
         <v>154</v>
       </c>
       <c r="B50" s="2">
@@ -7166,18 +8907,22 @@
       <c r="U50" s="2">
         <v>7995</v>
       </c>
-      <c r="V50" s="28" t="s">
+      <c r="V50" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W50" s="2">
         <v>4867</v>
       </c>
-      <c r="X50" s="28" t="s">
+      <c r="X50" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="Y50" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A51" s="23" t="s">
         <v>155</v>
       </c>
       <c r="B51" s="1">
@@ -7246,18 +8991,22 @@
       <c r="U51" s="1">
         <v>1974</v>
       </c>
-      <c r="V51" s="27" t="s">
+      <c r="V51" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W51" s="1">
         <v>1564</v>
       </c>
-      <c r="X51" s="27" t="s">
+      <c r="X51" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
+      <c r="Y51" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
         <v>156</v>
       </c>
       <c r="B52" s="2">
@@ -7326,18 +9075,22 @@
       <c r="U52" s="2">
         <v>2833</v>
       </c>
-      <c r="V52" s="28" t="s">
+      <c r="V52" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W52" s="2">
         <v>3361</v>
       </c>
-      <c r="X52" s="28" t="s">
+      <c r="X52" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A53" s="14" t="s">
+      <c r="Y52" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A53" s="23" t="s">
         <v>157</v>
       </c>
       <c r="B53" s="1">
@@ -7406,18 +9159,22 @@
       <c r="U53" s="1">
         <v>1440</v>
       </c>
-      <c r="V53" s="27" t="s">
+      <c r="V53" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W53" s="1">
         <v>2075</v>
       </c>
-      <c r="X53" s="27" t="s">
+      <c r="X53" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A54" s="24" t="s">
+      <c r="Y53" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
         <v>158</v>
       </c>
       <c r="B54" s="2">
@@ -7486,18 +9243,22 @@
       <c r="U54" s="2">
         <v>245</v>
       </c>
-      <c r="V54" s="28" t="s">
+      <c r="V54" s="27" t="s">
         <v>180</v>
       </c>
       <c r="W54" s="2">
         <v>2146</v>
       </c>
-      <c r="X54" s="28" t="s">
+      <c r="X54" s="27" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A55" s="14" t="s">
+      <c r="Y54" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A55" s="23" t="s">
         <v>159</v>
       </c>
       <c r="B55" s="1">
@@ -7566,18 +9327,22 @@
       <c r="U55" s="1">
         <v>3383</v>
       </c>
-      <c r="V55" s="27" t="s">
+      <c r="V55" s="26" t="s">
         <v>180</v>
       </c>
       <c r="W55" s="1">
         <v>1714</v>
       </c>
-      <c r="X55" s="27" t="s">
+      <c r="X55" s="26" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
+      <c r="Y55" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+      <c r="A56" s="14" t="s">
         <v>160</v>
       </c>
       <c r="B56" s="20">
@@ -7585,92 +9350,96 @@
         <v>2520</v>
       </c>
       <c r="C56" s="20">
-        <f t="shared" ref="C56:W56" si="6">SUM(C12:C15)</f>
+        <f t="shared" ref="C56:W56" si="7">SUM(C12:C15)</f>
         <v>18905</v>
       </c>
       <c r="D56" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2507</v>
       </c>
       <c r="E56" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1890</v>
       </c>
       <c r="F56" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>558</v>
       </c>
       <c r="G56" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5288</v>
       </c>
       <c r="H56" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>773</v>
       </c>
       <c r="I56" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>409</v>
       </c>
       <c r="J56" s="20">
-        <f t="shared" ref="J56:K56" si="7">SUM(J12:J15)</f>
+        <f t="shared" ref="J56:K56" si="8">SUM(J12:J15)</f>
         <v>6564</v>
       </c>
       <c r="K56" s="20">
+        <f t="shared" si="8"/>
+        <v>3363</v>
+      </c>
+      <c r="L56" s="20">
         <f t="shared" si="7"/>
-        <v>3363</v>
-      </c>
-      <c r="L56" s="20">
-        <f t="shared" si="6"/>
         <v>9927</v>
       </c>
       <c r="M56" s="20">
-        <f t="shared" ref="M56:N56" si="8">SUM(M12:M15)</f>
+        <f t="shared" ref="M56:N56" si="9">SUM(M12:M15)</f>
         <v>6837</v>
       </c>
       <c r="N56" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1321</v>
       </c>
       <c r="O56" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8158</v>
       </c>
       <c r="P56" s="20" t="s">
         <v>177</v>
       </c>
       <c r="Q56" s="20">
-        <f t="shared" ref="Q56:R56" si="9">SUM(Q12:Q15)</f>
+        <f t="shared" ref="Q56:R56" si="10">SUM(Q12:Q15)</f>
         <v>13401</v>
       </c>
       <c r="R56" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13401</v>
       </c>
       <c r="S56" s="20">
+        <f t="shared" si="7"/>
+        <v>4684</v>
+      </c>
+      <c r="T56" s="20">
+        <f t="shared" ref="T56" si="11">SUM(T12:T15)</f>
+        <v>18085</v>
+      </c>
+      <c r="U56" s="20">
+        <f t="shared" si="7"/>
+        <v>4085</v>
+      </c>
+      <c r="V56" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="W56" s="20">
+        <f t="shared" si="7"/>
+        <v>7209</v>
+      </c>
+      <c r="X56" s="30" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y56" s="9">
         <f t="shared" si="6"/>
-        <v>4684</v>
-      </c>
-      <c r="T56" s="20">
-        <f t="shared" ref="T56" si="10">SUM(T12:T15)</f>
-        <v>18085</v>
-      </c>
-      <c r="U56" s="20">
-        <f t="shared" si="6"/>
-        <v>4085</v>
-      </c>
-      <c r="V56" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="W56" s="20">
-        <f t="shared" si="6"/>
-        <v>7209</v>
-      </c>
-      <c r="X56" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A57" s="22" t="s">
         <v>161</v>
       </c>
@@ -7679,92 +9448,96 @@
         <v>1607</v>
       </c>
       <c r="C57" s="22">
-        <f t="shared" ref="C57:W57" si="11">SUM(C40:C44)</f>
+        <f t="shared" ref="C57:W57" si="12">SUM(C40:C44)</f>
         <v>50830</v>
       </c>
       <c r="D57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1167</v>
       </c>
       <c r="E57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14900</v>
       </c>
       <c r="F57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="G57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22</v>
       </c>
       <c r="H57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>551</v>
       </c>
       <c r="I57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J57" s="22">
-        <f t="shared" ref="J57:K57" si="12">SUM(J40:J44)</f>
+        <f t="shared" ref="J57:K57" si="13">SUM(J40:J44)</f>
         <v>527</v>
       </c>
       <c r="K57" s="22">
+        <f t="shared" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="L57" s="22">
         <f t="shared" si="12"/>
-        <v>19</v>
-      </c>
-      <c r="L57" s="22">
-        <f t="shared" si="11"/>
         <v>546</v>
       </c>
       <c r="M57" s="22">
-        <f t="shared" ref="M57:N57" si="13">SUM(M40:M44)</f>
+        <f t="shared" ref="M57:N57" si="14">SUM(M40:M44)</f>
         <v>23161</v>
       </c>
       <c r="N57" s="22">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>30</v>
       </c>
       <c r="O57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>23191</v>
       </c>
       <c r="P57" s="22" t="s">
         <v>177</v>
       </c>
       <c r="Q57" s="22">
-        <f t="shared" ref="Q57:R57" si="14">SUM(Q40:Q44)</f>
+        <f t="shared" ref="Q57:R57" si="15">SUM(Q40:Q44)</f>
         <v>23688</v>
       </c>
       <c r="R57" s="22">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>23688</v>
       </c>
       <c r="S57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
       <c r="T57" s="22">
-        <f t="shared" ref="T57" si="15">SUM(T40:T44)</f>
+        <f t="shared" ref="T57" si="16">SUM(T40:T44)</f>
         <v>23737</v>
       </c>
       <c r="U57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>856</v>
       </c>
-      <c r="V57" s="32" t="s">
+      <c r="V57" s="31" t="s">
         <v>180</v>
       </c>
       <c r="W57" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2293</v>
       </c>
-      <c r="X57" s="32" t="s">
+      <c r="X57" s="31" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="Y57" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
         <v>162</v>
       </c>
@@ -7773,89 +9546,93 @@
         <v>121111</v>
       </c>
       <c r="C58" s="21">
-        <f t="shared" ref="C58:W58" si="16">SUM(C2:C55)</f>
+        <f t="shared" ref="C58:W58" si="17">SUM(C2:C55)</f>
         <v>822492</v>
       </c>
       <c r="D58" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>56872</v>
       </c>
       <c r="E58" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>72899</v>
       </c>
       <c r="F58" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>31797</v>
       </c>
       <c r="G58" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>113205</v>
       </c>
       <c r="H58" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>26327</v>
       </c>
       <c r="I58" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2394</v>
       </c>
       <c r="J58" s="21">
-        <f t="shared" ref="J58:K58" si="17">SUM(J2:J55)</f>
+        <f t="shared" ref="J58:K58" si="18">SUM(J2:J55)</f>
         <v>318646</v>
       </c>
       <c r="K58" s="21">
+        <f t="shared" si="18"/>
+        <v>140875</v>
+      </c>
+      <c r="L58" s="21">
         <f t="shared" si="17"/>
-        <v>140875</v>
-      </c>
-      <c r="L58" s="21">
-        <f t="shared" si="16"/>
         <v>459521</v>
       </c>
       <c r="M58" s="21">
-        <f t="shared" ref="M58:N58" si="18">SUM(M2:M55)</f>
+        <f t="shared" ref="M58:N58" si="19">SUM(M2:M55)</f>
         <v>547927</v>
       </c>
       <c r="N58" s="21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>58507</v>
       </c>
       <c r="O58" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>606434</v>
       </c>
       <c r="P58" s="21" t="s">
         <v>177</v>
       </c>
       <c r="Q58" s="21">
-        <f t="shared" ref="Q58:R58" si="19">SUM(Q2:Q55)</f>
+        <f t="shared" ref="Q58:R58" si="20">SUM(Q2:Q55)</f>
         <v>866573</v>
       </c>
       <c r="R58" s="21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>866573</v>
       </c>
       <c r="S58" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>199382</v>
       </c>
       <c r="T58" s="21">
-        <f t="shared" ref="T58" si="20">SUM(T2:T55)</f>
+        <f t="shared" ref="T58" si="21">SUM(T2:T55)</f>
         <v>1065955</v>
       </c>
       <c r="U58" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>151631</v>
       </c>
-      <c r="V58" s="33" t="s">
+      <c r="V58" s="32" t="s">
         <v>180</v>
       </c>
       <c r="W58" s="21">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>162690</v>
       </c>
-      <c r="X58" s="33" t="s">
+      <c r="X58" s="32" t="s">
         <v>180</v>
+      </c>
+      <c r="Y58" s="9">
+        <f t="shared" si="6"/>
+        <v>2024</v>
       </c>
     </row>
   </sheetData>
@@ -7879,16 +9656,16 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="7" customWidth="1"/>
-    <col min="2" max="14" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="44.7265625" style="7" customWidth="1"/>
+    <col min="2" max="14" width="16.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -7935,7 +9712,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
@@ -7983,7 +9760,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>107</v>
       </c>
@@ -8031,7 +9808,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
@@ -8079,7 +9856,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>109</v>
       </c>
@@ -8127,7 +9904,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
@@ -8175,7 +9952,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>111</v>
       </c>
@@ -8223,7 +10000,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
@@ -8271,7 +10048,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>113</v>
       </c>
@@ -8319,7 +10096,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
@@ -8367,7 +10144,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>115</v>
       </c>
@@ -8415,7 +10192,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>116</v>
       </c>
@@ -8463,7 +10240,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
@@ -8511,7 +10288,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>118</v>
       </c>
@@ -8559,7 +10336,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>119</v>
       </c>
@@ -8607,7 +10384,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>120</v>
       </c>
@@ -8655,7 +10432,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>121</v>
       </c>
@@ -8703,7 +10480,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>122</v>
       </c>
@@ -8751,7 +10528,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>123</v>
       </c>
@@ -8799,7 +10576,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
         <v>124</v>
       </c>
@@ -8847,7 +10624,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
@@ -8895,7 +10672,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
         <v>126</v>
       </c>
@@ -8943,7 +10720,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
@@ -8991,7 +10768,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
         <v>128</v>
       </c>
@@ -9039,7 +10816,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>129</v>
       </c>
@@ -9087,7 +10864,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>130</v>
       </c>
@@ -9135,7 +10912,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>131</v>
       </c>
@@ -9183,7 +10960,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
@@ -9231,7 +11008,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>133</v>
       </c>
@@ -9279,7 +11056,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>134</v>
       </c>
@@ -9327,7 +11104,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>135</v>
       </c>
@@ -9375,7 +11152,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>136</v>
       </c>
@@ -9423,7 +11200,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>137</v>
       </c>
@@ -9471,7 +11248,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
         <v>138</v>
       </c>
@@ -9519,7 +11296,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>139</v>
       </c>
@@ -9567,7 +11344,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
         <v>140</v>
       </c>
@@ -9615,7 +11392,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>141</v>
       </c>
@@ -9663,7 +11440,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
         <v>142</v>
       </c>
@@ -9711,7 +11488,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>143</v>
       </c>
@@ -9759,7 +11536,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>144</v>
       </c>
@@ -9807,7 +11584,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
@@ -9855,7 +11632,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>146</v>
       </c>
@@ -9903,7 +11680,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>147</v>
       </c>
@@ -9951,7 +11728,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
         <v>148</v>
       </c>
@@ -9999,7 +11776,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>149</v>
       </c>
@@ -10047,7 +11824,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>150</v>
       </c>
@@ -10095,7 +11872,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>151</v>
       </c>
@@ -10143,7 +11920,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
         <v>152</v>
       </c>
@@ -10191,7 +11968,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
         <v>153</v>
       </c>
@@ -10239,7 +12016,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
         <v>154</v>
       </c>
@@ -10287,7 +12064,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>155</v>
       </c>
@@ -10335,7 +12112,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
         <v>156</v>
       </c>
@@ -10383,7 +12160,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>157</v>
       </c>
@@ -10431,7 +12208,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
         <v>158</v>
       </c>
@@ -10479,7 +12256,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>159</v>
       </c>
@@ -10527,7 +12304,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
         <v>160</v>
       </c>
@@ -10588,7 +12365,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="22" t="s">
         <v>161</v>
       </c>
@@ -10649,7 +12426,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
         <v>162</v>
       </c>
@@ -10732,13 +12509,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.7109375" style="7" customWidth="1"/>
-    <col min="2" max="13" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="44.7265625" style="7" customWidth="1"/>
+    <col min="2" max="13" width="16.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -10782,7 +12559,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
@@ -10826,7 +12603,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="23" t="s">
         <v>107</v>
       </c>
@@ -10870,7 +12647,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
@@ -10914,7 +12691,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
         <v>109</v>
       </c>
@@ -10958,7 +12735,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
@@ -11002,7 +12779,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="23" t="s">
         <v>111</v>
       </c>
@@ -11046,7 +12823,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
@@ -11090,7 +12867,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="23" t="s">
         <v>113</v>
       </c>
@@ -11134,7 +12911,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
@@ -11178,7 +12955,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="23" t="s">
         <v>115</v>
       </c>
@@ -11222,7 +12999,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
         <v>116</v>
       </c>
@@ -11266,7 +13043,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
@@ -11310,7 +13087,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
         <v>118</v>
       </c>
@@ -11354,7 +13131,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
         <v>119</v>
       </c>
@@ -11398,7 +13175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="23" t="s">
         <v>120</v>
       </c>
@@ -11442,7 +13219,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="14" t="s">
         <v>121</v>
       </c>
@@ -11486,7 +13263,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="23" t="s">
         <v>122</v>
       </c>
@@ -11530,7 +13307,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
         <v>123</v>
       </c>
@@ -11574,7 +13351,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="23" t="s">
         <v>124</v>
       </c>
@@ -11618,7 +13395,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
@@ -11662,7 +13439,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="23" t="s">
         <v>126</v>
       </c>
@@ -11706,7 +13483,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
@@ -11750,7 +13527,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="23" t="s">
         <v>128</v>
       </c>
@@ -11794,7 +13571,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="14" t="s">
         <v>129</v>
       </c>
@@ -11838,7 +13615,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="23" t="s">
         <v>130</v>
       </c>
@@ -11882,7 +13659,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="14" t="s">
         <v>131</v>
       </c>
@@ -11926,7 +13703,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
@@ -11970,7 +13747,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="14" t="s">
         <v>133</v>
       </c>
@@ -12014,7 +13791,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="23" t="s">
         <v>134</v>
       </c>
@@ -12058,7 +13835,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
         <v>135</v>
       </c>
@@ -12102,7 +13879,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="23" t="s">
         <v>136</v>
       </c>
@@ -12146,7 +13923,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
         <v>137</v>
       </c>
@@ -12190,7 +13967,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="23" t="s">
         <v>138</v>
       </c>
@@ -12234,7 +14011,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
         <v>139</v>
       </c>
@@ -12278,7 +14055,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="23" t="s">
         <v>140</v>
       </c>
@@ -12322,7 +14099,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
         <v>141</v>
       </c>
@@ -12366,7 +14143,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="23" t="s">
         <v>142</v>
       </c>
@@ -12410,7 +14187,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>143</v>
       </c>
@@ -12454,7 +14231,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="18" t="s">
         <v>144</v>
       </c>
@@ -12498,7 +14275,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
@@ -12542,7 +14319,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="18" t="s">
         <v>146</v>
       </c>
@@ -12586,7 +14363,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="18" t="s">
         <v>147</v>
       </c>
@@ -12630,7 +14407,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="23" t="s">
         <v>148</v>
       </c>
@@ -12674,7 +14451,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>149</v>
       </c>
@@ -12718,7 +14495,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="23" t="s">
         <v>150</v>
       </c>
@@ -12762,7 +14539,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>151</v>
       </c>
@@ -12806,7 +14583,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="23" t="s">
         <v>152</v>
       </c>
@@ -12850,7 +14627,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
         <v>153</v>
       </c>
@@ -12894,7 +14671,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="23" t="s">
         <v>154</v>
       </c>
@@ -12938,7 +14715,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>155</v>
       </c>
@@ -12982,7 +14759,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="23" t="s">
         <v>156</v>
       </c>
@@ -13026,7 +14803,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="14" t="s">
         <v>157</v>
       </c>
@@ -13070,7 +14847,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="23" t="s">
         <v>158</v>
       </c>
@@ -13114,7 +14891,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>159</v>
       </c>
@@ -13158,7 +14935,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
         <v>160</v>
       </c>
@@ -13214,7 +14991,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="22" t="s">
         <v>161</v>
       </c>
@@ -13270,7 +15047,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
         <v>162</v>
       </c>
@@ -13346,12 +15123,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="13" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="13" width="16.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -13395,7 +15172,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -13439,7 +15216,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -13483,7 +15260,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -13527,7 +15304,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -13571,7 +15348,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -13615,7 +15392,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -13659,7 +15436,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -13703,7 +15480,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -13747,7 +15524,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -13791,7 +15568,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -13835,7 +15612,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -13879,7 +15656,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -13923,7 +15700,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -13967,7 +15744,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -14011,7 +15788,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -14061,7 +15838,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -14105,7 +15882,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -14149,7 +15926,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
@@ -14193,7 +15970,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -14237,7 +16014,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>79</v>
       </c>
@@ -14281,7 +16058,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -14325,7 +16102,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>20</v>
       </c>
@@ -14369,7 +16146,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -14413,7 +16190,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>22</v>
       </c>
@@ -14457,7 +16234,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -14501,7 +16278,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>24</v>
       </c>
@@ -14545,7 +16322,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -14589,7 +16366,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
@@ -14633,7 +16410,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -14677,7 +16454,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>28</v>
       </c>
@@ -14721,7 +16498,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -14765,7 +16542,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>30</v>
       </c>
@@ -14809,7 +16586,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -14853,7 +16630,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>32</v>
       </c>
@@ -14897,7 +16674,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -14941,7 +16718,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>34</v>
       </c>
@@ -14985,7 +16762,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -15029,7 +16806,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>36</v>
       </c>
@@ -15073,7 +16850,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -15117,7 +16894,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -15161,7 +16938,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -15205,7 +16982,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -15249,7 +17026,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -15293,7 +17070,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -15343,7 +17120,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>42</v>
       </c>
@@ -15387,7 +17164,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -15431,7 +17208,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>44</v>
       </c>
@@ -15475,7 +17252,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -15519,7 +17296,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>46</v>
       </c>
@@ -15563,7 +17340,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -15607,7 +17384,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>48</v>
       </c>
@@ -15651,7 +17428,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -15695,7 +17472,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>50</v>
       </c>
@@ -15739,7 +17516,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -15783,7 +17560,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>52</v>
       </c>
@@ -15827,7 +17604,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -15896,12 +17673,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="14" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="14" width="16.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -15948,7 +17725,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -15995,7 +17772,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -16042,7 +17819,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -16089,7 +17866,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -16136,7 +17913,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -16183,7 +17960,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -16230,7 +18007,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -16277,7 +18054,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -16324,7 +18101,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -16371,7 +18148,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -16418,7 +18195,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -16465,7 +18242,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -16512,7 +18289,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -16559,7 +18336,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -16606,7 +18383,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -16653,7 +18430,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -16700,7 +18477,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -16747,7 +18524,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
@@ -16794,7 +18571,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -16841,7 +18618,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>79</v>
       </c>
@@ -16888,7 +18665,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -16935,7 +18712,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>20</v>
       </c>
@@ -16982,7 +18759,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -17029,7 +18806,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>22</v>
       </c>
@@ -17076,7 +18853,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -17123,7 +18900,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="13" t="s">
         <v>24</v>
       </c>
@@ -17170,7 +18947,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -17217,7 +18994,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
@@ -17264,7 +19041,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -17311,7 +19088,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="13" t="s">
         <v>28</v>
       </c>
@@ -17358,7 +19135,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -17405,7 +19182,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="13" t="s">
         <v>30</v>
       </c>
@@ -17452,7 +19229,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -17499,7 +19276,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="13" t="s">
         <v>32</v>
       </c>
@@ -17546,7 +19323,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -17593,7 +19370,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="13" t="s">
         <v>34</v>
       </c>
@@ -17640,7 +19417,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -17687,7 +19464,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="13" t="s">
         <v>36</v>
       </c>
@@ -17734,7 +19511,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -17781,7 +19558,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -17828,7 +19605,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -17875,7 +19652,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -17922,7 +19699,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -17969,7 +19746,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -18016,7 +19793,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="13" t="s">
         <v>42</v>
       </c>
@@ -18063,7 +19840,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -18110,7 +19887,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="13" t="s">
         <v>44</v>
       </c>
@@ -18157,7 +19934,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -18204,7 +19981,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="13" t="s">
         <v>46</v>
       </c>
@@ -18251,7 +20028,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -18298,7 +20075,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="13" t="s">
         <v>48</v>
       </c>
@@ -18345,7 +20122,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -18392,7 +20169,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="13" t="s">
         <v>50</v>
       </c>
@@ -18439,7 +20216,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -18486,7 +20263,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="13" t="s">
         <v>52</v>
       </c>
@@ -18533,7 +20310,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -18598,16 +20375,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="16.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="16.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="7" width="16.7265625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="16.7265625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="16.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -18650,7 +20427,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -18693,7 +20470,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -18736,7 +20513,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -18779,7 +20556,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -18822,7 +20599,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -18865,7 +20642,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -18908,7 +20685,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -18951,7 +20728,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -18994,7 +20771,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -19037,7 +20814,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -19080,7 +20857,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -19123,7 +20900,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -19166,7 +20943,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -19209,7 +20986,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -19252,7 +21029,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -19295,7 +21072,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -19338,7 +21115,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -19381,7 +21158,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -19424,7 +21201,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -19467,7 +21244,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>79</v>
       </c>
@@ -19510,7 +21287,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -19553,7 +21330,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
@@ -19596,7 +21373,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -19639,7 +21416,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
@@ -19682,7 +21459,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -19725,7 +21502,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
@@ -19768,7 +21545,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -19811,7 +21588,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
@@ -19854,7 +21631,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -19897,7 +21674,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
@@ -19940,7 +21717,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -19983,7 +21760,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -20026,7 +21803,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -20069,7 +21846,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -20112,7 +21889,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -20155,7 +21932,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -20198,7 +21975,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -20241,7 +22018,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>36</v>
       </c>
@@ -20284,7 +22061,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -20327,7 +22104,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -20370,7 +22147,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -20413,7 +22190,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -20456,7 +22233,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -20499,7 +22276,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -20542,7 +22319,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>42</v>
       </c>
@@ -20585,7 +22362,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -20628,7 +22405,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>44</v>
       </c>
@@ -20671,7 +22448,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -20714,7 +22491,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>46</v>
       </c>
@@ -20757,7 +22534,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -20800,7 +22577,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>48</v>
       </c>
@@ -20843,7 +22620,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -20886,7 +22663,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>50</v>
       </c>
@@ -20929,7 +22706,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -20972,7 +22749,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>52</v>
       </c>
@@ -21015,7 +22792,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -21058,7 +22835,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>2019</v>
       </c>
@@ -21134,16 +22911,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="16.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="16.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="7" width="16.7265625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="16.7265625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="16.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -21186,7 +22963,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -21229,7 +23006,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -21272,7 +23049,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -21315,7 +23092,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -21358,7 +23135,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -21401,7 +23178,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -21444,7 +23221,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -21487,7 +23264,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -21530,7 +23307,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -21573,7 +23350,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -21616,7 +23393,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -21659,7 +23436,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -21702,7 +23479,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -21745,7 +23522,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -21788,7 +23565,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -21831,7 +23608,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -21874,7 +23651,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -21917,7 +23694,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -21960,7 +23737,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -22003,7 +23780,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>79</v>
       </c>
@@ -22024,7 +23801,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -22067,7 +23844,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
@@ -22110,7 +23887,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -22153,7 +23930,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
@@ -22196,7 +23973,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -22239,7 +24016,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
@@ -22282,7 +24059,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -22325,7 +24102,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
@@ -22368,7 +24145,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -22411,7 +24188,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
@@ -22454,7 +24231,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -22497,7 +24274,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -22540,7 +24317,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -22583,7 +24360,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -22626,7 +24403,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -22669,7 +24446,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -22712,7 +24489,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -22755,7 +24532,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>36</v>
       </c>
@@ -22798,7 +24575,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -22841,7 +24618,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -22884,7 +24661,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -22927,7 +24704,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -22970,7 +24747,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -23013,7 +24790,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -23056,7 +24833,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="11" t="s">
         <v>42</v>
       </c>
@@ -23099,7 +24876,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -23142,7 +24919,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="11" t="s">
         <v>44</v>
       </c>
@@ -23185,7 +24962,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -23228,7 +25005,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="11" t="s">
         <v>46</v>
       </c>
@@ -23271,7 +25048,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -23314,7 +25091,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
         <v>48</v>
       </c>
@@ -23357,7 +25134,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -23400,7 +25177,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>50</v>
       </c>
@@ -23443,7 +25220,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -23486,7 +25263,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="11" t="s">
         <v>52</v>
       </c>
@@ -23529,7 +25306,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -23572,7 +25349,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>2018</v>
       </c>
@@ -23642,16 +25419,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="7" width="16.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="16.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="16.7109375" style="7" customWidth="1"/>
+    <col min="1" max="7" width="16.7265625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="16.7265625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="16.7265625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -23694,7 +25471,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -23737,7 +25514,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -23780,7 +25557,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -23823,7 +25600,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -23866,7 +25643,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -23909,7 +25686,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -23952,7 +25729,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -23995,7 +25772,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
@@ -24038,7 +25815,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -24081,7 +25858,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
@@ -24124,7 +25901,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -24167,7 +25944,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -24210,7 +25987,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -24253,7 +26030,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -24296,7 +26073,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -24339,7 +26116,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
@@ -24382,7 +26159,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -24425,7 +26202,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
@@ -24468,7 +26245,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -24511,7 +26288,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>79</v>
       </c>
@@ -24532,7 +26309,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -24575,7 +26352,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
@@ -24618,7 +26395,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -24661,7 +26438,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
@@ -24704,7 +26481,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -24747,7 +26524,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
@@ -24790,7 +26567,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -24833,7 +26610,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" s="12" t="s">
         <v>26</v>
       </c>
@@ -24876,7 +26653,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -24919,7 +26696,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
         <v>28</v>
       </c>
@@ -24962,7 +26739,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -25005,7 +26782,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="12" t="s">
         <v>30</v>
       </c>
@@ -25048,7 +26825,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -25091,7 +26868,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>32</v>
       </c>
@@ -25134,7 +26911,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -25177,7 +26954,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
         <v>34</v>
       </c>
@@ -25220,7 +26997,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -25263,7 +27040,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>36</v>
       </c>
@@ -25306,7 +27083,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -25349,7 +27126,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -25392,7 +27169,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -25435,7 +27212,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -25478,7 +27255,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -25521,7 +27298,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -25564,7 +27341,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" s="12" t="s">
         <v>42</v>
       </c>
@@ -25607,7 +27384,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -25650,7 +27427,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>44</v>
       </c>
@@ -25693,7 +27470,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -25736,7 +27513,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" s="12" t="s">
         <v>46</v>
       </c>
@@ -25779,7 +27556,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -25822,7 +27599,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>48</v>
       </c>
@@ -25865,7 +27642,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -25908,7 +27685,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" s="12" t="s">
         <v>50</v>
       </c>
@@ -25951,7 +27728,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -25994,7 +27771,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" s="12" t="s">
         <v>52</v>
       </c>
@@ -26037,7 +27814,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -26080,7 +27857,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" s="9">
         <v>2017</v>
       </c>

--- a/statistics_files/2025/2025_99_z_state_survey.xlsx
+++ b/statistics_files/2025/2025_99_z_state_survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\github\next_statistics\statistics_files\2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B68AB4F-8F2C-42EB-B56A-7E1228368FEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EEFD6C-E56C-4528-8B25-D30F7849CBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="717" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="717" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State Survey-2025 data" sheetId="9" r:id="rId1"/>
@@ -35,6 +35,15 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
       <xlwcv:version setVersion="1"/>
     </ext>
@@ -1667,16 +1676,16 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7265625" style="7" customWidth="1"/>
-    <col min="2" max="14" width="16.7265625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="27.6328125" style="40" customWidth="1"/>
-    <col min="16" max="16" width="16.7265625" style="40" customWidth="1"/>
-    <col min="17" max="17" width="27.6328125" style="40" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" style="7" customWidth="1"/>
+    <col min="2" max="14" width="16.7109375" style="7" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" style="40" customWidth="1"/>
+    <col min="17" max="17" width="27.5703125" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1738,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
@@ -1755,16 +1764,16 @@
         <v>1509</v>
       </c>
       <c r="I2" s="1">
-        <v>13620</v>
+        <v>20424</v>
       </c>
       <c r="J2" s="1">
-        <v>5918</v>
+        <v>9276</v>
       </c>
       <c r="K2" s="1">
-        <v>22499</v>
+        <v>34539</v>
       </c>
       <c r="L2" s="1">
-        <v>2300</v>
+        <v>3282</v>
       </c>
       <c r="M2" s="14" t="s">
         <v>177</v>
@@ -1782,7 +1791,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>107</v>
       </c>
@@ -1808,16 +1817,16 @@
         <v>581</v>
       </c>
       <c r="I3" s="2">
-        <v>7892</v>
+        <v>11909</v>
       </c>
       <c r="J3" s="2">
-        <v>2979</v>
+        <v>4414</v>
       </c>
       <c r="K3" s="2">
-        <v>13703</v>
+        <v>21924</v>
       </c>
       <c r="L3" s="2">
-        <v>1101</v>
+        <v>1669</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>177</v>
@@ -1835,7 +1844,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
@@ -1861,16 +1870,16 @@
         <v>1033</v>
       </c>
       <c r="I4" s="1">
-        <v>18193</v>
+        <v>27618</v>
       </c>
       <c r="J4" s="1">
-        <v>6598</v>
+        <v>10372</v>
       </c>
       <c r="K4" s="1">
-        <v>39206</v>
+        <v>61816</v>
       </c>
       <c r="L4" s="1">
-        <v>4154</v>
+        <v>6591</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>177</v>
@@ -1888,7 +1897,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
@@ -1914,16 +1923,16 @@
         <v>83</v>
       </c>
       <c r="I5" s="2">
-        <v>373</v>
+        <v>577</v>
       </c>
       <c r="J5" s="2">
-        <v>127</v>
+        <v>225</v>
       </c>
       <c r="K5" s="2">
-        <v>407</v>
+        <v>963</v>
       </c>
       <c r="L5" s="2">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>177</v>
@@ -1941,7 +1950,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
@@ -1967,16 +1976,16 @@
         <v>2402</v>
       </c>
       <c r="I6" s="1">
-        <v>14483</v>
+        <v>21816</v>
       </c>
       <c r="J6" s="1">
-        <v>6968</v>
+        <v>10353</v>
       </c>
       <c r="K6" s="1">
-        <v>23098</v>
+        <v>35942</v>
       </c>
       <c r="L6" s="1">
-        <v>2473</v>
+        <v>3943</v>
       </c>
       <c r="M6" s="14" t="s">
         <v>177</v>
@@ -1994,7 +2003,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>111</v>
       </c>
@@ -2020,16 +2029,16 @@
         <v>216</v>
       </c>
       <c r="I7" s="2">
-        <v>1542</v>
+        <v>2473</v>
       </c>
       <c r="J7" s="2">
-        <v>933</v>
+        <v>1487</v>
       </c>
       <c r="K7" s="2">
-        <v>2644</v>
+        <v>3751</v>
       </c>
       <c r="L7" s="2">
-        <v>368</v>
+        <v>601</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>177</v>
@@ -2047,7 +2056,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
@@ -2073,16 +2082,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>2687</v>
+        <v>4037</v>
       </c>
       <c r="J8" s="1">
-        <v>562</v>
+        <v>828</v>
       </c>
       <c r="K8" s="1">
-        <v>1941</v>
+        <v>3089</v>
       </c>
       <c r="L8" s="1">
-        <v>204</v>
+        <v>319</v>
       </c>
       <c r="M8" s="14" t="s">
         <v>177</v>
@@ -2100,7 +2109,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>113</v>
       </c>
@@ -2126,16 +2135,16 @@
         <v>47</v>
       </c>
       <c r="I9" s="2">
-        <v>1464</v>
+        <v>2228</v>
       </c>
       <c r="J9" s="2">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K9" s="2">
-        <v>848</v>
+        <v>1322</v>
       </c>
       <c r="L9" s="2">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="M9" s="15" t="s">
         <v>177</v>
@@ -2153,7 +2162,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
@@ -2179,16 +2188,16 @@
         <v>5</v>
       </c>
       <c r="I10" s="1">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>391</v>
+        <v>651</v>
       </c>
       <c r="L10" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="M10" s="14" t="s">
         <v>177</v>
@@ -2206,7 +2215,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>115</v>
       </c>
@@ -2232,7 +2241,7 @@
         <v>361</v>
       </c>
       <c r="I11" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J11" s="2">
         <v>0</v>
@@ -2259,7 +2268,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>116</v>
       </c>
@@ -2285,16 +2294,16 @@
         <v>95</v>
       </c>
       <c r="I12" s="3">
-        <v>219</v>
+        <v>290</v>
       </c>
       <c r="J12" s="3">
-        <v>327</v>
+        <v>495</v>
       </c>
       <c r="K12" s="3">
-        <v>248</v>
+        <v>446</v>
       </c>
       <c r="L12" s="3">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M12" s="16" t="s">
         <v>177</v>
@@ -2312,7 +2321,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
@@ -2338,16 +2347,16 @@
         <v>200</v>
       </c>
       <c r="I13" s="3">
-        <v>551</v>
+        <v>854</v>
       </c>
       <c r="J13" s="3">
-        <v>865</v>
+        <v>1348</v>
       </c>
       <c r="K13" s="3">
-        <v>495</v>
+        <v>768</v>
       </c>
       <c r="L13" s="3">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="M13" s="16" t="s">
         <v>177</v>
@@ -2365,7 +2374,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>118</v>
       </c>
@@ -2391,16 +2400,16 @@
         <v>239</v>
       </c>
       <c r="I14" s="3">
-        <v>2226</v>
+        <v>3184</v>
       </c>
       <c r="J14" s="3">
-        <v>564</v>
+        <v>759</v>
       </c>
       <c r="K14" s="3">
-        <v>2115</v>
+        <v>3347</v>
       </c>
       <c r="L14" s="3">
-        <v>294</v>
+        <v>433</v>
       </c>
       <c r="M14" s="16" t="s">
         <v>177</v>
@@ -2418,7 +2427,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>119</v>
       </c>
@@ -2444,16 +2453,16 @@
         <v>249</v>
       </c>
       <c r="I15" s="3">
-        <v>982</v>
+        <v>1474</v>
       </c>
       <c r="J15" s="3">
-        <v>306</v>
+        <v>493</v>
       </c>
       <c r="K15" s="3">
-        <v>1245</v>
+        <v>1845</v>
       </c>
       <c r="L15" s="3">
-        <v>248</v>
+        <v>339</v>
       </c>
       <c r="M15" s="16" t="s">
         <v>177</v>
@@ -2471,7 +2480,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>120</v>
       </c>
@@ -2497,16 +2506,16 @@
         <v>11</v>
       </c>
       <c r="I16" s="2">
-        <v>1309</v>
+        <v>2009</v>
       </c>
       <c r="J16" s="2">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="K16" s="2">
-        <v>937</v>
+        <v>1648</v>
       </c>
       <c r="L16" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>177</v>
@@ -2524,7 +2533,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>121</v>
       </c>
@@ -2550,16 +2559,16 @@
         <v>73</v>
       </c>
       <c r="I17" s="1">
-        <v>4979</v>
+        <v>7774</v>
       </c>
       <c r="J17" s="1">
-        <v>1462</v>
+        <v>2395</v>
       </c>
       <c r="K17" s="1">
-        <v>8010</v>
+        <v>13132</v>
       </c>
       <c r="L17" s="1">
-        <v>721</v>
+        <v>1214</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>177</v>
@@ -2577,7 +2586,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>122</v>
       </c>
@@ -2603,16 +2612,16 @@
         <v>4</v>
       </c>
       <c r="I18" s="2">
-        <v>497</v>
+        <v>724</v>
       </c>
       <c r="J18" s="2">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="K18" s="2">
-        <v>599</v>
+        <v>884</v>
       </c>
       <c r="L18" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="M18" s="15" t="s">
         <v>177</v>
@@ -2630,7 +2639,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>123</v>
       </c>
@@ -2656,16 +2665,16 @@
         <v>304</v>
       </c>
       <c r="I19" s="1">
-        <v>6099</v>
+        <v>9249</v>
       </c>
       <c r="J19" s="1">
-        <v>1997</v>
+        <v>2981</v>
       </c>
       <c r="K19" s="1">
-        <v>7241</v>
+        <v>12191</v>
       </c>
       <c r="L19" s="1">
-        <v>388</v>
+        <v>560</v>
       </c>
       <c r="M19" s="14" t="s">
         <v>177</v>
@@ -2683,7 +2692,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>124</v>
       </c>
@@ -2709,13 +2718,13 @@
         <v>642</v>
       </c>
       <c r="I20" s="2">
-        <v>115</v>
+        <v>173</v>
       </c>
       <c r="J20" s="2">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="K20" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="L20" s="2">
         <v>1</v>
@@ -2736,7 +2745,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
@@ -2762,16 +2771,16 @@
         <v>687</v>
       </c>
       <c r="I21" s="1">
-        <v>7031</v>
+        <v>10769</v>
       </c>
       <c r="J21" s="1">
-        <v>1721</v>
+        <v>2939</v>
       </c>
       <c r="K21" s="1">
-        <v>6346</v>
+        <v>10113</v>
       </c>
       <c r="L21" s="1">
-        <v>863</v>
+        <v>1300</v>
       </c>
       <c r="M21" s="14" t="s">
         <v>177</v>
@@ -2789,7 +2798,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>126</v>
       </c>
@@ -2815,16 +2824,16 @@
         <v>416</v>
       </c>
       <c r="I22" s="2">
-        <v>1119</v>
+        <v>1733</v>
       </c>
       <c r="J22" s="2">
-        <v>467</v>
+        <v>628</v>
       </c>
       <c r="K22" s="2">
-        <v>639</v>
+        <v>1256</v>
       </c>
       <c r="L22" s="2">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="M22" s="15" t="s">
         <v>177</v>
@@ -2842,7 +2851,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
@@ -2868,16 +2877,16 @@
         <v>509</v>
       </c>
       <c r="I23" s="1">
-        <v>7217</v>
+        <v>10705</v>
       </c>
       <c r="J23" s="1">
-        <v>1778</v>
+        <v>2845</v>
       </c>
       <c r="K23" s="1">
-        <v>12168</v>
+        <v>18197</v>
       </c>
       <c r="L23" s="1">
-        <v>944</v>
+        <v>1459</v>
       </c>
       <c r="M23" s="14" t="s">
         <v>177</v>
@@ -2895,7 +2904,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>128</v>
       </c>
@@ -2921,16 +2930,16 @@
         <v>4848</v>
       </c>
       <c r="I24" s="2">
-        <v>23860</v>
+        <v>35850</v>
       </c>
       <c r="J24" s="2">
-        <v>14938</v>
+        <v>22052</v>
       </c>
       <c r="K24" s="2">
-        <v>43710</v>
+        <v>64230</v>
       </c>
       <c r="L24" s="2">
-        <v>4747</v>
+        <v>6948</v>
       </c>
       <c r="M24" s="15" t="s">
         <v>177</v>
@@ -2948,7 +2957,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>129</v>
       </c>
@@ -2974,16 +2983,16 @@
         <v>276</v>
       </c>
       <c r="I25" s="1">
-        <v>1478</v>
+        <v>2218</v>
       </c>
       <c r="J25" s="1">
-        <v>649</v>
+        <v>1011</v>
       </c>
       <c r="K25" s="1">
-        <v>2400</v>
+        <v>3944</v>
       </c>
       <c r="L25" s="1">
-        <v>535</v>
+        <v>882</v>
       </c>
       <c r="M25" s="14" t="s">
         <v>177</v>
@@ -3001,7 +3010,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>130</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>131</v>
       </c>
@@ -3080,16 +3089,16 @@
         <v>155</v>
       </c>
       <c r="I27" s="1">
-        <v>2314</v>
+        <v>3372</v>
       </c>
       <c r="J27" s="1">
-        <v>500</v>
+        <v>680</v>
       </c>
       <c r="K27" s="1">
-        <v>1695</v>
+        <v>2341</v>
       </c>
       <c r="L27" s="1">
-        <v>229</v>
+        <v>359</v>
       </c>
       <c r="M27" s="14" t="s">
         <v>177</v>
@@ -3107,7 +3116,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>132</v>
       </c>
@@ -3133,16 +3142,16 @@
         <v>12</v>
       </c>
       <c r="I28" s="2">
-        <v>1035</v>
+        <v>1539</v>
       </c>
       <c r="J28" s="2">
-        <v>217</v>
+        <v>300</v>
       </c>
       <c r="K28" s="2">
-        <v>1674</v>
+        <v>2637</v>
       </c>
       <c r="L28" s="2">
-        <v>175</v>
+        <v>260</v>
       </c>
       <c r="M28" s="15" t="s">
         <v>177</v>
@@ -3160,7 +3169,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>133</v>
       </c>
@@ -3186,16 +3195,16 @@
         <v>111</v>
       </c>
       <c r="I29" s="1">
-        <v>5054</v>
+        <v>7708</v>
       </c>
       <c r="J29" s="1">
-        <v>1386</v>
+        <v>2122</v>
       </c>
       <c r="K29" s="1">
-        <v>11222</v>
+        <v>17374</v>
       </c>
       <c r="L29" s="1">
-        <v>1253</v>
+        <v>1813</v>
       </c>
       <c r="M29" s="14" t="s">
         <v>177</v>
@@ -3213,7 +3222,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>134</v>
       </c>
@@ -3239,16 +3248,16 @@
         <v>350</v>
       </c>
       <c r="I30" s="2">
-        <v>273</v>
+        <v>401</v>
       </c>
       <c r="J30" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="K30" s="2">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="L30" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M30" s="15" t="s">
         <v>177</v>
@@ -3266,7 +3275,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>135</v>
       </c>
@@ -3292,16 +3301,16 @@
         <v>768</v>
       </c>
       <c r="I31" s="1">
-        <v>1031</v>
+        <v>1511</v>
       </c>
       <c r="J31" s="1">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="K31" s="1">
-        <v>1382</v>
+        <v>2096</v>
       </c>
       <c r="L31" s="1">
-        <v>274</v>
+        <v>359</v>
       </c>
       <c r="M31" s="14" t="s">
         <v>177</v>
@@ -3319,7 +3328,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>136</v>
       </c>
@@ -3345,16 +3354,16 @@
         <v>792</v>
       </c>
       <c r="I32" s="2">
-        <v>5710</v>
+        <v>8672</v>
       </c>
       <c r="J32" s="2">
-        <v>3670</v>
+        <v>5498</v>
       </c>
       <c r="K32" s="2">
-        <v>3567</v>
+        <v>5812</v>
       </c>
       <c r="L32" s="2">
-        <v>597</v>
+        <v>903</v>
       </c>
       <c r="M32" s="15" t="s">
         <v>177</v>
@@ -3372,7 +3381,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>137</v>
       </c>
@@ -3398,16 +3407,16 @@
         <v>184</v>
       </c>
       <c r="I33" s="1">
-        <v>4638</v>
+        <v>7068</v>
       </c>
       <c r="J33" s="1">
-        <v>935</v>
+        <v>1554</v>
       </c>
       <c r="K33" s="1">
-        <v>3993</v>
+        <v>6790</v>
       </c>
       <c r="L33" s="1">
-        <v>348</v>
+        <v>584</v>
       </c>
       <c r="M33" s="14" t="s">
         <v>177</v>
@@ -3425,7 +3434,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="24" t="s">
         <v>138</v>
       </c>
@@ -3451,16 +3460,16 @@
         <v>115</v>
       </c>
       <c r="I34" s="2">
-        <v>2404</v>
+        <v>3543</v>
       </c>
       <c r="J34" s="2">
-        <v>1174</v>
+        <v>1845</v>
       </c>
       <c r="K34" s="2">
-        <v>1517</v>
+        <v>2481</v>
       </c>
       <c r="L34" s="2">
-        <v>278</v>
+        <v>423</v>
       </c>
       <c r="M34" s="15" t="s">
         <v>177</v>
@@ -3478,7 +3487,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>139</v>
       </c>
@@ -3504,16 +3513,16 @@
         <v>3112</v>
       </c>
       <c r="I35" s="1">
-        <v>19519</v>
+        <v>28863</v>
       </c>
       <c r="J35" s="1">
-        <v>5576</v>
+        <v>8220</v>
       </c>
       <c r="K35" s="1">
-        <v>31503</v>
+        <v>49415</v>
       </c>
       <c r="L35" s="1">
-        <v>2942</v>
+        <v>4254</v>
       </c>
       <c r="M35" s="14" t="s">
         <v>177</v>
@@ -3531,7 +3540,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="24" t="s">
         <v>140</v>
       </c>
@@ -3557,16 +3566,16 @@
         <v>911</v>
       </c>
       <c r="I36" s="2">
-        <v>2566</v>
+        <v>3808</v>
       </c>
       <c r="J36" s="2">
-        <v>1559</v>
+        <v>2303</v>
       </c>
       <c r="K36" s="2">
-        <v>2228</v>
+        <v>3786</v>
       </c>
       <c r="L36" s="2">
-        <v>527</v>
+        <v>868</v>
       </c>
       <c r="M36" s="15" t="s">
         <v>177</v>
@@ -3584,7 +3593,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>141</v>
       </c>
@@ -3610,16 +3619,16 @@
         <v>1251</v>
       </c>
       <c r="I37" s="1">
-        <v>7490</v>
+        <v>11448</v>
       </c>
       <c r="J37" s="1">
-        <v>5063</v>
+        <v>7478</v>
       </c>
       <c r="K37" s="1">
-        <v>14457</v>
+        <v>23411</v>
       </c>
       <c r="L37" s="1">
-        <v>1507</v>
+        <v>2156</v>
       </c>
       <c r="M37" s="14" t="s">
         <v>177</v>
@@ -3637,7 +3646,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="24" t="s">
         <v>142</v>
       </c>
@@ -3663,16 +3672,16 @@
         <v>50</v>
       </c>
       <c r="I38" s="2">
-        <v>546</v>
+        <v>804</v>
       </c>
       <c r="J38" s="2">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="K38" s="2">
-        <v>932</v>
+        <v>1629</v>
       </c>
       <c r="L38" s="2">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="M38" s="15" t="s">
         <v>177</v>
@@ -3690,7 +3699,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>143</v>
       </c>
@@ -3716,16 +3725,16 @@
         <v>87</v>
       </c>
       <c r="I39" s="5">
-        <v>417</v>
+        <v>602</v>
       </c>
       <c r="J39" s="5">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="K39" s="5">
-        <v>975</v>
+        <v>1523</v>
       </c>
       <c r="L39" s="5">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="M39" s="18" t="s">
         <v>177</v>
@@ -3743,7 +3752,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>144</v>
       </c>
@@ -3769,16 +3778,16 @@
         <v>46</v>
       </c>
       <c r="I40" s="5">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="J40" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K40" s="5">
-        <v>3333</v>
+        <v>4082</v>
       </c>
       <c r="L40" s="5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M40" s="18" t="s">
         <v>177</v>
@@ -3796,7 +3805,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
@@ -3822,16 +3831,16 @@
         <v>230</v>
       </c>
       <c r="I41" s="5">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="J41" s="5">
         <v>9</v>
       </c>
       <c r="K41" s="5">
-        <v>14653</v>
+        <v>18987</v>
       </c>
       <c r="L41" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M41" s="18" t="s">
         <v>177</v>
@@ -3849,7 +3858,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>146</v>
       </c>
@@ -3875,13 +3884,13 @@
         <v>101</v>
       </c>
       <c r="I42" s="5">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="J42" s="5">
         <v>0</v>
       </c>
       <c r="K42" s="5">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L42" s="5">
         <v>0</v>
@@ -3902,7 +3911,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>147</v>
       </c>
@@ -3928,13 +3937,13 @@
         <v>118</v>
       </c>
       <c r="I43" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J43" s="5">
         <v>1</v>
       </c>
       <c r="K43" s="5">
-        <v>1643</v>
+        <v>1911</v>
       </c>
       <c r="L43" s="5">
         <v>0</v>
@@ -3955,7 +3964,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>149</v>
       </c>
@@ -3981,16 +3990,16 @@
         <v>72</v>
       </c>
       <c r="I44" s="1">
-        <v>996</v>
+        <v>1629</v>
       </c>
       <c r="J44" s="1">
-        <v>1288</v>
+        <v>2023</v>
       </c>
       <c r="K44" s="1">
-        <v>867</v>
+        <v>1433</v>
       </c>
       <c r="L44" s="1">
-        <v>64</v>
+        <v>120</v>
       </c>
       <c r="M44" s="14" t="s">
         <v>177</v>
@@ -4008,7 +4017,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
         <v>150</v>
       </c>
@@ -4034,16 +4043,16 @@
         <v>104</v>
       </c>
       <c r="I45" s="2">
-        <v>3215</v>
+        <v>4992</v>
       </c>
       <c r="J45" s="2">
-        <v>2353</v>
+        <v>3255</v>
       </c>
       <c r="K45" s="2">
-        <v>7990</v>
+        <v>12427</v>
       </c>
       <c r="L45" s="2">
-        <v>1626</v>
+        <v>2378</v>
       </c>
       <c r="M45" s="15" t="s">
         <v>177</v>
@@ -4061,7 +4070,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>151</v>
       </c>
@@ -4087,16 +4096,16 @@
         <v>648</v>
       </c>
       <c r="I46" s="1">
-        <v>5724</v>
+        <v>8744</v>
       </c>
       <c r="J46" s="1">
-        <v>1701</v>
+        <v>2560</v>
       </c>
       <c r="K46" s="1">
-        <v>19249</v>
+        <v>32352</v>
       </c>
       <c r="L46" s="1">
-        <v>1209</v>
+        <v>2094</v>
       </c>
       <c r="M46" s="14" t="s">
         <v>177</v>
@@ -4114,7 +4123,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>152</v>
       </c>
@@ -4140,16 +4149,16 @@
         <v>27</v>
       </c>
       <c r="I47" s="2">
-        <v>4357</v>
+        <v>6451</v>
       </c>
       <c r="J47" s="2">
-        <v>1046</v>
+        <v>1509</v>
       </c>
       <c r="K47" s="2">
-        <v>7294</v>
+        <v>12437</v>
       </c>
       <c r="L47" s="2">
-        <v>463</v>
+        <v>771</v>
       </c>
       <c r="M47" s="15" t="s">
         <v>177</v>
@@ -4167,7 +4176,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>153</v>
       </c>
@@ -4193,16 +4202,16 @@
         <v>1409</v>
       </c>
       <c r="I48" s="1">
-        <v>3179</v>
+        <v>4656</v>
       </c>
       <c r="J48" s="1">
-        <v>901</v>
+        <v>1298</v>
       </c>
       <c r="K48" s="1">
-        <v>5921</v>
+        <v>9981</v>
       </c>
       <c r="L48" s="1">
-        <v>625</v>
+        <v>1037</v>
       </c>
       <c r="M48" s="14" t="s">
         <v>177</v>
@@ -4220,7 +4229,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>154</v>
       </c>
@@ -4246,16 +4255,16 @@
         <v>587</v>
       </c>
       <c r="I49" s="2">
-        <v>11118</v>
+        <v>16716</v>
       </c>
       <c r="J49" s="2">
-        <v>4652</v>
+        <v>6605</v>
       </c>
       <c r="K49" s="2">
-        <v>13148</v>
+        <v>21176</v>
       </c>
       <c r="L49" s="2">
-        <v>2272</v>
+        <v>3318</v>
       </c>
       <c r="M49" s="15" t="s">
         <v>177</v>
@@ -4273,7 +4282,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>155</v>
       </c>
@@ -4299,16 +4308,16 @@
         <v>44</v>
       </c>
       <c r="I50" s="1">
-        <v>1753</v>
+        <v>2735</v>
       </c>
       <c r="J50" s="1">
-        <v>290</v>
+        <v>467</v>
       </c>
       <c r="K50" s="1">
-        <v>1958</v>
+        <v>3415</v>
       </c>
       <c r="L50" s="1">
-        <v>261</v>
+        <v>401</v>
       </c>
       <c r="M50" s="14" t="s">
         <v>177</v>
@@ -4326,7 +4335,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="24" t="s">
         <v>156</v>
       </c>
@@ -4352,16 +4361,16 @@
         <v>755</v>
       </c>
       <c r="I51" s="2">
-        <v>3172</v>
+        <v>4736</v>
       </c>
       <c r="J51" s="2">
-        <v>857</v>
+        <v>1152</v>
       </c>
       <c r="K51" s="2">
-        <v>5406</v>
+        <v>8495</v>
       </c>
       <c r="L51" s="2">
-        <v>1321</v>
+        <v>1723</v>
       </c>
       <c r="M51" s="15" t="s">
         <v>177</v>
@@ -4379,7 +4388,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>157</v>
       </c>
@@ -4405,16 +4414,16 @@
         <v>132</v>
       </c>
       <c r="I52" s="1">
-        <v>542</v>
+        <v>818</v>
       </c>
       <c r="J52" s="1">
-        <v>386</v>
+        <v>522</v>
       </c>
       <c r="K52" s="1">
-        <v>1174</v>
+        <v>1807</v>
       </c>
       <c r="L52" s="1">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="M52" s="14" t="s">
         <v>177</v>
@@ -4432,7 +4441,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="24" t="s">
         <v>158</v>
       </c>
@@ -4458,16 +4467,16 @@
         <v>46</v>
       </c>
       <c r="I53" s="2">
-        <v>639</v>
+        <v>957</v>
       </c>
       <c r="J53" s="2">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="K53" s="2">
-        <v>906</v>
+        <v>1298</v>
       </c>
       <c r="L53" s="2">
-        <v>188</v>
+        <v>261</v>
       </c>
       <c r="M53" s="15" t="s">
         <v>177</v>
@@ -4485,7 +4494,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>159</v>
       </c>
@@ -4511,16 +4520,16 @@
         <v>6</v>
       </c>
       <c r="I54" s="1">
-        <v>1661</v>
+        <v>2530</v>
       </c>
       <c r="J54" s="1">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="K54" s="1">
-        <v>3216</v>
+        <v>5465</v>
       </c>
       <c r="L54" s="1">
-        <v>362</v>
+        <v>590</v>
       </c>
       <c r="M54" s="14" t="s">
         <v>177</v>
@@ -4538,7 +4547,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>160</v>
       </c>
@@ -4564,16 +4573,16 @@
         <v>783</v>
       </c>
       <c r="I55" s="20">
-        <v>3978</v>
+        <v>5802</v>
       </c>
       <c r="J55" s="20">
-        <v>2062</v>
+        <v>3095</v>
       </c>
       <c r="K55" s="20">
-        <v>4103</v>
+        <v>6406</v>
       </c>
       <c r="L55" s="20">
-        <v>670</v>
+        <v>985</v>
       </c>
       <c r="M55" s="20" t="s">
         <v>177</v>
@@ -4591,7 +4600,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>161</v>
       </c>
@@ -4617,16 +4626,16 @@
         <v>495</v>
       </c>
       <c r="I56" s="22">
-        <v>471</v>
+        <v>560</v>
       </c>
       <c r="J56" s="22">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K56" s="22">
-        <v>19668</v>
+        <v>25024</v>
       </c>
       <c r="L56" s="22">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M56" s="22" t="s">
         <v>177</v>
@@ -4644,7 +4653,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
         <v>162</v>
       </c>
@@ -4719,16 +4728,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7265625" style="7" customWidth="1"/>
-    <col min="2" max="21" width="16.7265625" style="7" customWidth="1"/>
-    <col min="22" max="22" width="23.81640625" style="7" customWidth="1"/>
-    <col min="23" max="23" width="16.7265625" style="7" customWidth="1"/>
-    <col min="24" max="24" width="23.81640625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" style="7" customWidth="1"/>
+    <col min="2" max="21" width="16.7109375" style="7" customWidth="1"/>
+    <col min="22" max="22" width="23.85546875" style="7" customWidth="1"/>
+    <col min="23" max="23" width="16.7109375" style="7" customWidth="1"/>
+    <col min="24" max="24" width="23.85546875" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4805,7 +4814,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
@@ -4889,7 +4898,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>107</v>
       </c>
@@ -4973,7 +4982,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
@@ -5057,7 +5066,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>109</v>
       </c>
@@ -5141,7 +5150,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
@@ -5225,7 +5234,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>111</v>
       </c>
@@ -5309,7 +5318,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
@@ -5393,7 +5402,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>113</v>
       </c>
@@ -5477,7 +5486,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
@@ -5561,7 +5570,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>115</v>
       </c>
@@ -5645,7 +5654,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>116</v>
       </c>
@@ -5729,7 +5738,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
@@ -5813,7 +5822,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>118</v>
       </c>
@@ -5897,7 +5906,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>119</v>
       </c>
@@ -5981,7 +5990,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>120</v>
       </c>
@@ -6065,7 +6074,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>121</v>
       </c>
@@ -6149,7 +6158,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>122</v>
       </c>
@@ -6233,7 +6242,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>123</v>
       </c>
@@ -6317,7 +6326,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>124</v>
       </c>
@@ -6401,7 +6410,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
@@ -6485,7 +6494,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>126</v>
       </c>
@@ -6569,7 +6578,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
@@ -6653,7 +6662,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>128</v>
       </c>
@@ -6737,7 +6746,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>129</v>
       </c>
@@ -6821,7 +6830,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>130</v>
       </c>
@@ -6905,7 +6914,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>131</v>
       </c>
@@ -6989,7 +6998,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
@@ -7073,7 +7082,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>133</v>
       </c>
@@ -7157,7 +7166,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>134</v>
       </c>
@@ -7241,7 +7250,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>135</v>
       </c>
@@ -7325,7 +7334,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>136</v>
       </c>
@@ -7409,7 +7418,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>137</v>
       </c>
@@ -7493,7 +7502,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>138</v>
       </c>
@@ -7577,7 +7586,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>139</v>
       </c>
@@ -7661,7 +7670,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>140</v>
       </c>
@@ -7745,7 +7754,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>141</v>
       </c>
@@ -7829,7 +7838,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>142</v>
       </c>
@@ -7913,7 +7922,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>143</v>
       </c>
@@ -7997,7 +8006,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>144</v>
       </c>
@@ -8081,7 +8090,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
@@ -8165,7 +8174,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>146</v>
       </c>
@@ -8249,7 +8258,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>147</v>
       </c>
@@ -8333,7 +8342,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="18" t="s">
         <v>148</v>
       </c>
@@ -8417,7 +8426,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>149</v>
       </c>
@@ -8501,7 +8510,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>150</v>
       </c>
@@ -8585,7 +8594,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
         <v>151</v>
       </c>
@@ -8669,7 +8678,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>152</v>
       </c>
@@ -8753,7 +8762,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
         <v>153</v>
       </c>
@@ -8837,7 +8846,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>154</v>
       </c>
@@ -8921,7 +8930,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
         <v>155</v>
       </c>
@@ -9005,7 +9014,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>156</v>
       </c>
@@ -9089,7 +9098,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
         <v>157</v>
       </c>
@@ -9173,7 +9182,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>158</v>
       </c>
@@ -9257,7 +9266,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
         <v>159</v>
       </c>
@@ -9341,7 +9350,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>160</v>
       </c>
@@ -9439,7 +9448,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>161</v>
       </c>
@@ -9537,7 +9546,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>162</v>
       </c>
@@ -9659,13 +9668,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7265625" style="7" customWidth="1"/>
-    <col min="2" max="14" width="16.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" style="7" customWidth="1"/>
+    <col min="2" max="14" width="16.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -9712,7 +9721,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
@@ -9760,7 +9769,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>107</v>
       </c>
@@ -9808,7 +9817,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
@@ -9856,7 +9865,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>109</v>
       </c>
@@ -9904,7 +9913,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
@@ -9952,7 +9961,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>111</v>
       </c>
@@ -10000,7 +10009,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
@@ -10048,7 +10057,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>113</v>
       </c>
@@ -10096,7 +10105,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
@@ -10144,7 +10153,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>115</v>
       </c>
@@ -10192,7 +10201,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>116</v>
       </c>
@@ -10240,7 +10249,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
@@ -10288,7 +10297,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>118</v>
       </c>
@@ -10336,7 +10345,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>119</v>
       </c>
@@ -10384,7 +10393,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>120</v>
       </c>
@@ -10432,7 +10441,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>121</v>
       </c>
@@ -10480,7 +10489,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>122</v>
       </c>
@@ -10528,7 +10537,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>123</v>
       </c>
@@ -10576,7 +10585,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>124</v>
       </c>
@@ -10624,7 +10633,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
@@ -10672,7 +10681,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>126</v>
       </c>
@@ -10720,7 +10729,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
@@ -10768,7 +10777,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>128</v>
       </c>
@@ -10816,7 +10825,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>129</v>
       </c>
@@ -10864,7 +10873,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>130</v>
       </c>
@@ -10912,7 +10921,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>131</v>
       </c>
@@ -10960,7 +10969,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
@@ -11008,7 +11017,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>133</v>
       </c>
@@ -11056,7 +11065,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>134</v>
       </c>
@@ -11104,7 +11113,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>135</v>
       </c>
@@ -11152,7 +11161,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>136</v>
       </c>
@@ -11200,7 +11209,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>137</v>
       </c>
@@ -11248,7 +11257,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>138</v>
       </c>
@@ -11296,7 +11305,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>139</v>
       </c>
@@ -11344,7 +11353,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>140</v>
       </c>
@@ -11392,7 +11401,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>141</v>
       </c>
@@ -11440,7 +11449,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>142</v>
       </c>
@@ -11488,7 +11497,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>143</v>
       </c>
@@ -11536,7 +11545,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>144</v>
       </c>
@@ -11584,7 +11593,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
@@ -11632,7 +11641,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>146</v>
       </c>
@@ -11680,7 +11689,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>147</v>
       </c>
@@ -11728,7 +11737,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>148</v>
       </c>
@@ -11776,7 +11785,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>149</v>
       </c>
@@ -11824,7 +11833,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>150</v>
       </c>
@@ -11872,7 +11881,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>151</v>
       </c>
@@ -11920,7 +11929,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>152</v>
       </c>
@@ -11968,7 +11977,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>153</v>
       </c>
@@ -12016,7 +12025,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>154</v>
       </c>
@@ -12064,7 +12073,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>155</v>
       </c>
@@ -12112,7 +12121,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>156</v>
       </c>
@@ -12160,7 +12169,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>157</v>
       </c>
@@ -12208,7 +12217,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>158</v>
       </c>
@@ -12256,7 +12265,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>159</v>
       </c>
@@ -12304,7 +12313,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>160</v>
       </c>
@@ -12365,7 +12374,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>161</v>
       </c>
@@ -12426,7 +12435,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>162</v>
       </c>
@@ -12509,13 +12518,13 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.7265625" style="7" customWidth="1"/>
-    <col min="2" max="13" width="16.7265625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="44.7109375" style="7" customWidth="1"/>
+    <col min="2" max="13" width="16.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -12559,7 +12568,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>106</v>
       </c>
@@ -12603,7 +12612,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>107</v>
       </c>
@@ -12647,7 +12656,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>108</v>
       </c>
@@ -12691,7 +12700,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>109</v>
       </c>
@@ -12735,7 +12744,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
@@ -12779,7 +12788,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
         <v>111</v>
       </c>
@@ -12823,7 +12832,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>112</v>
       </c>
@@ -12867,7 +12876,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
         <v>113</v>
       </c>
@@ -12911,7 +12920,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>114</v>
       </c>
@@ -12955,7 +12964,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
         <v>115</v>
       </c>
@@ -12999,7 +13008,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>116</v>
       </c>
@@ -13043,7 +13052,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
@@ -13087,7 +13096,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>118</v>
       </c>
@@ -13131,7 +13140,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>119</v>
       </c>
@@ -13175,7 +13184,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
         <v>120</v>
       </c>
@@ -13219,7 +13228,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>121</v>
       </c>
@@ -13263,7 +13272,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
         <v>122</v>
       </c>
@@ -13307,7 +13316,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>123</v>
       </c>
@@ -13351,7 +13360,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
         <v>124</v>
       </c>
@@ -13395,7 +13404,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>125</v>
       </c>
@@ -13439,7 +13448,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
         <v>126</v>
       </c>
@@ -13483,7 +13492,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>127</v>
       </c>
@@ -13527,7 +13536,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
         <v>128</v>
       </c>
@@ -13571,7 +13580,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>129</v>
       </c>
@@ -13615,7 +13624,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
         <v>130</v>
       </c>
@@ -13659,7 +13668,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>131</v>
       </c>
@@ -13703,7 +13712,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
         <v>132</v>
       </c>
@@ -13747,7 +13756,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>133</v>
       </c>
@@ -13791,7 +13800,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
         <v>134</v>
       </c>
@@ -13835,7 +13844,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>135</v>
       </c>
@@ -13879,7 +13888,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
         <v>136</v>
       </c>
@@ -13923,7 +13932,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>137</v>
       </c>
@@ -13967,7 +13976,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
         <v>138</v>
       </c>
@@ -14011,7 +14020,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>139</v>
       </c>
@@ -14055,7 +14064,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>140</v>
       </c>
@@ -14099,7 +14108,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>141</v>
       </c>
@@ -14143,7 +14152,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>142</v>
       </c>
@@ -14187,7 +14196,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>143</v>
       </c>
@@ -14231,7 +14240,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>144</v>
       </c>
@@ -14275,7 +14284,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>145</v>
       </c>
@@ -14319,7 +14328,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>146</v>
       </c>
@@ -14363,7 +14372,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>147</v>
       </c>
@@ -14407,7 +14416,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
         <v>148</v>
       </c>
@@ -14451,7 +14460,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>149</v>
       </c>
@@ -14495,7 +14504,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
         <v>150</v>
       </c>
@@ -14539,7 +14548,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>151</v>
       </c>
@@ -14583,7 +14592,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
         <v>152</v>
       </c>
@@ -14627,7 +14636,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>153</v>
       </c>
@@ -14671,7 +14680,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
         <v>154</v>
       </c>
@@ -14715,7 +14724,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>155</v>
       </c>
@@ -14759,7 +14768,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
         <v>156</v>
       </c>
@@ -14803,7 +14812,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>157</v>
       </c>
@@ -14847,7 +14856,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
         <v>158</v>
       </c>
@@ -14891,7 +14900,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>159</v>
       </c>
@@ -14935,7 +14944,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>160</v>
       </c>
@@ -14991,7 +15000,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="22" t="s">
         <v>161</v>
       </c>
@@ -15047,7 +15056,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
         <v>162</v>
       </c>
@@ -15123,12 +15132,12 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="16.7265625" style="7" customWidth="1"/>
+    <col min="1" max="13" width="16.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -15172,7 +15181,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -15216,7 +15225,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -15260,7 +15269,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -15304,7 +15313,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -15348,7 +15357,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -15392,7 +15401,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -15436,7 +15445,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -15480,7 +15489,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -15524,7 +15533,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -15568,7 +15577,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -15612,7 +15621,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -15656,7 +15665,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -15700,7 +15709,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -15744,7 +15753,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -15788,7 +15797,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -15838,7 +15847,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -15882,7 +15891,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -15926,7 +15935,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
@@ -15970,7 +15979,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -16014,7 +16023,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>79</v>
       </c>
@@ -16058,7 +16067,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -16102,7 +16111,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>20</v>
       </c>
@@ -16146,7 +16155,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -16190,7 +16199,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>22</v>
       </c>
@@ -16234,7 +16243,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -16278,7 +16287,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>24</v>
       </c>
@@ -16322,7 +16331,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -16366,7 +16375,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
@@ -16410,7 +16419,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -16454,7 +16463,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>28</v>
       </c>
@@ -16498,7 +16507,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -16542,7 +16551,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>30</v>
       </c>
@@ -16586,7 +16595,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -16630,7 +16639,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>32</v>
       </c>
@@ -16674,7 +16683,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -16718,7 +16727,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>34</v>
       </c>
@@ -16762,7 +16771,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -16806,7 +16815,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>36</v>
       </c>
@@ -16850,7 +16859,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -16894,7 +16903,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -16938,7 +16947,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -16982,7 +16991,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -17026,7 +17035,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -17070,7 +17079,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -17120,7 +17129,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>42</v>
       </c>
@@ -17164,7 +17173,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -17208,7 +17217,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>44</v>
       </c>
@@ -17252,7 +17261,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -17296,7 +17305,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>46</v>
       </c>
@@ -17340,7 +17349,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -17384,7 +17393,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>48</v>
       </c>
@@ -17428,7 +17437,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -17472,7 +17481,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>50</v>
       </c>
@@ -17516,7 +17525,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -17560,7 +17569,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>52</v>
       </c>
@@ -17604,7 +17613,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -17673,12 +17682,12 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="14" width="16.7265625" style="7" customWidth="1"/>
+    <col min="1" max="14" width="16.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -17725,7 +17734,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -17772,7 +17781,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
@@ -17819,7 +17828,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -17866,7 +17875,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
@@ -17913,7 +17922,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -17960,7 +17969,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
@@ -18007,7 +18016,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -18054,7 +18063,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
@@ -18101,7 +18110,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -18148,7 +18157,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
@@ -18195,7 +18204,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -18242,7 +18251,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -18289,7 +18298,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -18336,7 +18345,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -18383,7 +18392,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -18430,7 +18439,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>15</v>
       </c>
@@ -18477,7 +18486,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -18524,7 +18533,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>17</v>
       </c>
@@ -18571,7 +18580,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -18618,7 +18627,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>79</v>
       </c>
@@ -18665,7 +18674,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -18712,7 +18721,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>20</v>
       </c>
@@ -18759,7 +18768,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -18806,7 +18815,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>22</v>
       </c>
@@ -18853,7 +18862,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -18900,7 +18909,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>24</v>
       </c>
@@ -18947,7 +18956,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -18994,7 +19003,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>26</v>
       </c>
@@ -19041,7 +19050,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -19088,7 +19097,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>28</v>
       </c>
@@ -19135,7 +19144,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -19182,7 +19191,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>30</v>
       </c>
@@ -19229,7 +19238,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -19276,7 +19285,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>32</v>
       </c>
@@ -19323,7 +19332,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -19370,7 +19379,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>34</v>
       </c>
@@ -19417,7 +19426,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -19464,7 +19473,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>36</v>
       </c>
@@ -19511,7 +19520,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -19558,7 +19567,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -19605,7 +19614,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -19652,7 +19661,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -19699,7 +19708,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -19746,7 +19755,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -19793,7 +19802,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>42</v>
       </c>
@@ -19840,7 +19849,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -19887,7 +19896,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>44</v>
       </c>
@@ -19934,7 +19943,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -19981,7 +19990,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>46</v>
       </c>
@@ -20028,7 +20037,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -20075,7 +20084,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>48</v>
       </c>
@@ -20122,7 +20131,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -20169,7 +20178,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>50</v>
       </c>
@@ -20216,7 +20225,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -20263,7 +20272,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
         <v>52</v>
       </c>
@@ -20310,7 +20319,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -20375,16 +20384,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="16.7265625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="16.7265625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="16.7265625" style="7" customWidth="1"/>
+    <col min="1" max="7" width="16.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="16.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="16.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -20427,7 +20436,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -20470,7 +20479,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -20513,7 +20522,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -20556,7 +20565,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -20599,7 +20608,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -20642,7 +20651,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -20685,7 +20694,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -20728,7 +20737,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -20771,7 +20780,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -20814,7 +20823,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -20857,7 +20866,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -20900,7 +20909,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -20943,7 +20952,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -20986,7 +20995,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -21029,7 +21038,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -21072,7 +21081,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -21115,7 +21124,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -21158,7 +21167,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -21201,7 +21210,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -21244,7 +21253,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>79</v>
       </c>
@@ -21287,7 +21296,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -21330,7 +21339,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
@@ -21373,7 +21382,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -21416,7 +21425,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
@@ -21459,7 +21468,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -21502,7 +21511,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
@@ -21545,7 +21554,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -21588,7 +21597,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
@@ -21631,7 +21640,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -21674,7 +21683,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
@@ -21717,7 +21726,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -21760,7 +21769,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -21803,7 +21812,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -21846,7 +21855,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -21889,7 +21898,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -21932,7 +21941,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -21975,7 +21984,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -22018,7 +22027,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>36</v>
       </c>
@@ -22061,7 +22070,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -22104,7 +22113,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -22147,7 +22156,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -22190,7 +22199,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -22233,7 +22242,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -22276,7 +22285,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -22319,7 +22328,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>42</v>
       </c>
@@ -22362,7 +22371,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -22405,7 +22414,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>44</v>
       </c>
@@ -22448,7 +22457,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -22491,7 +22500,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>46</v>
       </c>
@@ -22534,7 +22543,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -22577,7 +22586,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>48</v>
       </c>
@@ -22620,7 +22629,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -22663,7 +22672,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>50</v>
       </c>
@@ -22706,7 +22715,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -22749,7 +22758,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>52</v>
       </c>
@@ -22792,7 +22801,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -22835,7 +22844,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>2019</v>
       </c>
@@ -22911,16 +22920,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="16.7265625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="16.7265625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="16.7265625" style="7" customWidth="1"/>
+    <col min="1" max="7" width="16.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="16.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="16.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -22963,7 +22972,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -23006,7 +23015,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
@@ -23049,7 +23058,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -23092,7 +23101,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
@@ -23135,7 +23144,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -23178,7 +23187,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
@@ -23221,7 +23230,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -23264,7 +23273,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>8</v>
       </c>
@@ -23307,7 +23316,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -23350,7 +23359,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>10</v>
       </c>
@@ -23393,7 +23402,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -23436,7 +23445,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -23479,7 +23488,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -23522,7 +23531,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -23565,7 +23574,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -23608,7 +23617,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>15</v>
       </c>
@@ -23651,7 +23660,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -23694,7 +23703,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>17</v>
       </c>
@@ -23737,7 +23746,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -23780,7 +23789,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>79</v>
       </c>
@@ -23801,7 +23810,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -23844,7 +23853,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
@@ -23887,7 +23896,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -23930,7 +23939,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>22</v>
       </c>
@@ -23973,7 +23982,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -24016,7 +24025,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>24</v>
       </c>
@@ -24059,7 +24068,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -24102,7 +24111,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>26</v>
       </c>
@@ -24145,7 +24154,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -24188,7 +24197,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
@@ -24231,7 +24240,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -24274,7 +24283,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
@@ -24317,7 +24326,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -24360,7 +24369,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
@@ -24403,7 +24412,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -24446,7 +24455,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
@@ -24489,7 +24498,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -24532,7 +24541,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>36</v>
       </c>
@@ -24575,7 +24584,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -24618,7 +24627,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -24661,7 +24670,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -24704,7 +24713,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -24747,7 +24756,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -24790,7 +24799,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -24833,7 +24842,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>42</v>
       </c>
@@ -24876,7 +24885,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -24919,7 +24928,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>44</v>
       </c>
@@ -24962,7 +24971,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -25005,7 +25014,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>46</v>
       </c>
@@ -25048,7 +25057,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -25091,7 +25100,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>48</v>
       </c>
@@ -25134,7 +25143,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -25177,7 +25186,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>50</v>
       </c>
@@ -25220,7 +25229,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -25263,7 +25272,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>52</v>
       </c>
@@ -25306,7 +25315,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -25349,7 +25358,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>2018</v>
       </c>
@@ -25419,16 +25428,16 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="16.7265625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="16.7265625" style="7" hidden="1" customWidth="1"/>
-    <col min="9" max="11" width="16.7265625" style="7" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" style="7" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="16.7265625" style="7" customWidth="1"/>
+    <col min="1" max="7" width="16.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="9" max="11" width="16.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="16.7109375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" s="8" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -25471,7 +25480,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -25514,7 +25523,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -25557,7 +25566,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -25600,7 +25609,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
@@ -25643,7 +25652,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -25686,7 +25695,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
@@ -25729,7 +25738,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -25772,7 +25781,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>8</v>
       </c>
@@ -25815,7 +25824,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -25858,7 +25867,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>10</v>
       </c>
@@ -25901,7 +25910,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -25944,7 +25953,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -25987,7 +25996,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -26030,7 +26039,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -26073,7 +26082,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>54</v>
       </c>
@@ -26116,7 +26125,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>15</v>
       </c>
@@ -26159,7 +26168,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -26202,7 +26211,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
@@ -26245,7 +26254,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -26288,7 +26297,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>79</v>
       </c>
@@ -26309,7 +26318,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -26352,7 +26361,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
@@ -26395,7 +26404,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
@@ -26438,7 +26447,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
@@ -26481,7 +26490,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -26524,7 +26533,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
@@ -26567,7 +26576,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
@@ -26610,7 +26619,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>26</v>
       </c>
@@ -26653,7 +26662,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -26696,7 +26705,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>28</v>
       </c>
@@ -26739,7 +26748,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -26782,7 +26791,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>30</v>
       </c>
@@ -26825,7 +26834,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -26868,7 +26877,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>32</v>
       </c>
@@ -26911,7 +26920,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -26954,7 +26963,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>34</v>
       </c>
@@ -26997,7 +27006,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -27040,7 +27049,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>36</v>
       </c>
@@ -27083,7 +27092,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
@@ -27126,7 +27135,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
@@ -27169,7 +27178,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>39</v>
       </c>
@@ -27212,7 +27221,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>40</v>
       </c>
@@ -27255,7 +27264,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>41</v>
       </c>
@@ -27298,7 +27307,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>55</v>
       </c>
@@ -27341,7 +27350,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>42</v>
       </c>
@@ -27384,7 +27393,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -27427,7 +27436,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>44</v>
       </c>
@@ -27470,7 +27479,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -27513,7 +27522,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>46</v>
       </c>
@@ -27556,7 +27565,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -27599,7 +27608,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>48</v>
       </c>
@@ -27642,7 +27651,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -27685,7 +27694,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>50</v>
       </c>
@@ -27728,7 +27737,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -27771,7 +27780,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>52</v>
       </c>
@@ -27814,7 +27823,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -27857,7 +27866,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>2017</v>
       </c>
